--- a/app/source_data/Maturity_Assessment_Data.xlsx
+++ b/app/source_data/Maturity_Assessment_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Backup\Lloyd\Business Operational Resilience\ChatGPT Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\maturity-assessment-2\app\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFE6DF86-DF57-4B70-930A-B4BCE9866CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F156D03-5935-4A7B-B031-5142F88562EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="735" windowWidth="25695" windowHeight="13050" tabRatio="822" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="735" windowWidth="26205" windowHeight="13050" tabRatio="822" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enhanced Framework" sheetId="1" r:id="rId1"/>
@@ -3053,9 +3053,6 @@
     <t>Dashboards/logs show targets met for TLPT programme for IBS/CIF (TIBER where applicable); variances generate actions with owners.</t>
   </si>
   <si>
-    <t>All critical IBS/CIF/CIF covered within cycle.</t>
-  </si>
-  <si>
     <t>No single owner for critical ICT oversight.</t>
   </si>
   <si>
@@ -5589,12 +5586,6 @@
 Evidence: runbooks, RTO/RPO register, exercise results, validation/sign-offs and improvement actions.</t>
   </si>
   <si>
-    <t>Defines how capacity and buffer management supports operational resilience across IBS/CIF/CIF (mapping, tolerances, scenarios, decisions).
-Basic: partial inventory and informal tolerances. 
-Advanced: approved tolerances, tested scenarios and tracked findings.
-Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
-  </si>
-  <si>
     <t>Defines governance for capital and liquidity buffers (roles, RAS, forums, MI).
 Basic: sporadic meetings and inconsistent policies. 
 Advanced: defined ToR, MI and exception tracking with actions.
@@ -5631,12 +5622,6 @@
 Evidence: runbooks, RTO/RPO register, exercise results, validation/sign-offs and improvement actions.</t>
   </si>
   <si>
-    <t>Defines how configuration management database (cmdb) supports operational resilience across IBS/CIF/CIF (mapping, tolerances, scenarios, decisions).
-Basic: partial inventory and informal tolerances. 
-Advanced: approved tolerances, tested scenarios and tracked findings.
-Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
-  </si>
-  <si>
     <t>Defines monitoring, SLOs/SLIs and on-call for continuous monitoring and assessment.
 Basic: noisy alerts and user-reported outages. 
 Advanced: SLOs with error budgets, runbooks and measured MTTD/MTTR.
@@ -5691,24 +5676,12 @@
 Evidence: RoPA, DPIAs, retention logs, breach notifications and regulator responses.</t>
   </si>
   <si>
-    <t>Defines how data quality and integrity monitoring supports operational resilience across IBS/CIF/CIF (mapping, tolerances, scenarios, decisions).
-Basic: partial inventory and informal tolerances. 
-Advanced: approved tolerances, tested scenarios and tracked findings.
-Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
-  </si>
-  <si>
     <t>Defines governance for decision making and delegation (roles, RAS, forums, MI).
 Basic: sporadic meetings and inconsistent policies. 
 Advanced: defined ToR, MI and exception tracking with actions.
 Evidence: RAS, ToR/minutes, MI packs, exception registers and action logs.</t>
   </si>
   <si>
-    <t>Defines how dependency resilience engineering supports operational resilience across IBS/CIF/CIF (mapping, tolerances, scenarios, decisions).
-Basic: partial inventory and informal tolerances. 
-Advanced: approved tolerances, tested scenarios and tracked findings.
-Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
-  </si>
-  <si>
     <t>Defines how disaster recovery automation is executed to minimise client harm and meet obligations (timely triage, leadership, updates, PIR, recovery).
 Basic: improvised steps and inconsistent timing. 
 Advanced: playbooks with timed SLAs/SLOs, automation and evidence capture.
@@ -5733,12 +5706,6 @@
 Evidence: L&amp;D plans, completion dashboards, survey results and targeted interventions.</t>
   </si>
   <si>
-    <t>Defines how end-to-end process mapping supports operational resilience across IBS/CIF/CIF (mapping, tolerances, scenarios, decisions).
-Basic: partial inventory and informal tolerances. 
-Advanced: approved tolerances, tested scenarios and tracked findings.
-Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
-  </si>
-  <si>
     <t>Defines resolvability and OCIR aspects for examination and inspection readiness.
 Basic: fragmented capability and limited testing. 
 Advanced: tested capabilities and data to support continuity in resolution.
@@ -5763,12 +5730,6 @@
 Evidence: SOPs, metrics, dashboards and improvement logs.</t>
   </si>
   <si>
-    <t>Defines how global regulatory mapping supports operational resilience across IBS/CIF/CIF (mapping, tolerances, scenarios, decisions).
-Basic: partial inventory and informal tolerances. 
-Advanced: approved tolerances, tested scenarios and tracked findings.
-Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
-  </si>
-  <si>
     <t>Defines governance for governance and oversight structure (roles, RAS, forums, MI).
 Basic: sporadic meetings and inconsistent policies. 
 Advanced: defined ToR, MI and exception tracking with actions.
@@ -5781,12 +5742,6 @@
 Evidence: SOPs/runbooks, bridges/decision logs, timing metrics (P95), calibration and improvement actions.</t>
   </si>
   <si>
-    <t>Defines how important business services register supports operational resilience across IBS/CIF/CIF (mapping, tolerances, scenarios, decisions).
-Basic: partial inventory and informal tolerances. 
-Advanced: approved tolerances, tested scenarios and tracked findings.
-Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
-  </si>
-  <si>
     <t>Defines how incident coordination and management is executed to minimise client harm and meet obligations (timely triage, leadership, updates, PIR, recovery).
 Basic: improvised steps and inconsistent timing. 
 Advanced: playbooks with timed SLAs/SLOs, automation and evidence capture.
@@ -5805,12 +5760,6 @@
 Evidence: RAS, ToR/minutes, MI packs, exception registers and action logs.</t>
   </si>
   <si>
-    <t>Defines how information lifecycle management supports operational resilience across IBS/CIF/CIF (mapping, tolerances, scenarios, decisions).
-Basic: partial inventory and informal tolerances. 
-Advanced: approved tolerances, tested scenarios and tracked findings.
-Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
-  </si>
-  <si>
     <t>Defines how integrated dr and it service continuity restores service within RTO/RPO and validates business readiness.
 Basic: improvised recovery and weak validation. 
 Advanced: dependency-aware runbooks and measured RTO/RPO attainment.
@@ -5859,12 +5808,6 @@
 Evidence: RAS, ToR/minutes, MI packs, exception registers and action logs.</t>
   </si>
   <si>
-    <t>Defines how master data and reference architecture supports operational resilience across IBS/CIF/CIF (mapping, tolerances, scenarios, decisions).
-Basic: partial inventory and informal tolerances. 
-Advanced: approved tolerances, tested scenarios and tracked findings.
-Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
-  </si>
-  <si>
     <t>Defines how media and public relations is executed to minimise client harm and meet obligations (timely triage, leadership, updates, PIR, recovery).
 Basic: improvised steps and inconsistent timing. 
 Advanced: playbooks with timed SLAs/SLOs, automation and evidence capture.
@@ -5919,12 +5862,6 @@
 Evidence: runbooks, RTO/RPO register, exercise results, validation/sign-offs and improvement actions.</t>
   </si>
   <si>
-    <t>Defines how plan accessibility and usability supports operational resilience across IBS/CIF/CIF (mapping, tolerances, scenarios, decisions).
-Basic: partial inventory and informal tolerances. 
-Advanced: approved tolerances, tested scenarios and tracked findings.
-Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
-  </si>
-  <si>
     <t>Defines how post-exercise analysis and improvement restores service within RTO/RPO and validates business readiness.
 Basic: improvised recovery and weak validation. 
 Advanced: dependency-aware runbooks and measured RTO/RPO attainment.
@@ -5943,24 +5880,12 @@
 Evidence: SLO dashboards, alert coverage, runbooks, paging metrics and error-budget reports.</t>
   </si>
   <si>
-    <t>Defines how process standardization and optimization supports operational resilience across IBS/CIF/CIF (mapping, tolerances, scenarios, decisions).
-Basic: partial inventory and informal tolerances. 
-Advanced: approved tolerances, tested scenarios and tracked findings.
-Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
-  </si>
-  <si>
     <t>Defines culture/training for psychological safety and speak-up culture.
 Basic: one-off training and low engagement. 
 Advanced: role-based plans and outcome metrics (e.g., phishing fail rate).
 Evidence: L&amp;D plans, completion dashboards, survey results and targeted interventions.</t>
   </si>
   <si>
-    <t>Defines how quantified impact tolerance statements supports operational resilience across IBS/CIF/CIF (mapping, tolerances, scenarios, decisions).
-Basic: partial inventory and informal tolerances. 
-Advanced: approved tolerances, tested scenarios and tracked findings.
-Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
-  </si>
-  <si>
     <t>Defines how recovery and restoration coordination is executed to minimise client harm and meet obligations (timely triage, leadership, updates, PIR, recovery).
 Basic: improvised steps and inconsistent timing. 
 Advanced: playbooks with timed SLAs/SLOs, automation and evidence capture.
@@ -6003,18 +5928,6 @@
 Evidence: RAS, ToR/minutes, MI packs, exception registers and action logs.</t>
   </si>
   <si>
-    <t>Defines how remote work and flexibility supports operational resilience across IBS/CIF/CIF (mapping, tolerances, scenarios, decisions).
-Basic: partial inventory and informal tolerances. 
-Advanced: approved tolerances, tested scenarios and tracked findings.
-Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
-  </si>
-  <si>
-    <t>Defines how residual risk rating methodology supports operational resilience across IBS/CIF/CIF (mapping, tolerances, scenarios, decisions).
-Basic: partial inventory and informal tolerances. 
-Advanced: approved tolerances, tested scenarios and tracked findings.
-Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
-  </si>
-  <si>
     <t>Defines governance for resilience architecture patterns (roles, RAS, forums, MI).
 Basic: sporadic meetings and inconsistent policies. 
 Advanced: defined ToR, MI and exception tracking with actions.
@@ -6069,12 +5982,6 @@
 Evidence: L&amp;D plans, completion dashboards, survey results and targeted interventions.</t>
   </si>
   <si>
-    <t>Defines how scenario-based stress testing supports operational resilience across IBS/CIF/CIF (mapping, tolerances, scenarios, decisions).
-Basic: partial inventory and informal tolerances. 
-Advanced: approved tolerances, tested scenarios and tracked findings.
-Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
-  </si>
-  <si>
     <t>Defines security operations for security operations and incident response (use-cases, detection, response).
 Basic: reactive and undocumented. 
 Advanced: tuned detections, playbooks, and measured MTTD/MTTR with validation.
@@ -6087,30 +5994,12 @@
 Evidence: RAS, ToR/minutes, MI packs, exception registers and action logs.</t>
   </si>
   <si>
-    <t>Defines how service level architecture supports operational resilience across IBS/CIF/CIF (mapping, tolerances, scenarios, decisions).
-Basic: partial inventory and informal tolerances. 
-Advanced: approved tolerances, tested scenarios and tracked findings.
-Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
-  </si>
-  <si>
-    <t>Defines how severe-but-plausible scenario library supports operational resilience across IBS/CIF/CIF (mapping, tolerances, scenarios, decisions).
-Basic: partial inventory and informal tolerances. 
-Advanced: approved tolerances, tested scenarios and tracked findings.
-Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
-  </si>
-  <si>
     <t>Defines culture/training for simulation and experiential learning.
 Basic: one-off training and low engagement. 
 Advanced: role-based plans and outcome metrics (e.g., phishing fail rate).
 Evidence: L&amp;D plans, completion dashboards, survey results and targeted interventions.</t>
   </si>
   <si>
-    <t>Defines how single point of failure identification supports operational resilience across IBS/CIF/CIF (mapping, tolerances, scenarios, decisions).
-Basic: partial inventory and informal tolerances. 
-Advanced: approved tolerances, tested scenarios and tracked findings.
-Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
-  </si>
-  <si>
     <t>Defines culture/training for skills assessment and gap analysis.
 Basic: one-off training and low engagement. 
 Advanced: role-based plans and outcome metrics (e.g., phishing fail rate).
@@ -6127,12 +6016,6 @@
 Basic: fragmented capability and limited testing. 
 Advanced: tested capabilities and data to support continuity in resolution.
 Evidence: RAF/OCIR artefacts, test reports, issues and closure metrics.</t>
-  </si>
-  <si>
-    <t>Defines how supply chain risk assessment supports operational resilience across IBS/CIF/CIF (mapping, tolerances, scenarios, decisions).
-Basic: partial inventory and informal tolerances. 
-Advanced: approved tolerances, tested scenarios and tracked findings.
-Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
   </si>
   <si>
     <t>Defines governance for technology risk assessment (roles, RAS, forums, MI).
@@ -6239,6 +6122,123 @@
 Advanced: Oversight plan and metrics; contracts reflect key DORA provisions (access, audit, data/location, sub-outsourcing, termination/exit); concentration risk monitored; joint resilience tests run with critical providers; exit/portability rehearsed for IBS/CIF.
 Evidence to check: List of critical providers and any EU designation status; oversight plan and MI; copies of contracts/DPAs showing Article 30-style clauses; notifications of sub-outsourcing; results of joint tests; exit/portability test reports; remediation logs and decisions.
 Regulatory pointers: DORA Chapter V (ICT third-party risk), Article 30 (key contractual provisions) and Article 31–32 (designation and EU oversight of critical ICT third-party providers)</t>
+  </si>
+  <si>
+    <t>Defines how capacity and buffer management supports operational resilience across IBS/CIF (mapping, tolerances, scenarios, decisions).
+Basic: partial inventory and informal tolerances. 
+Advanced: approved tolerances, tested scenarios and tracked findings.
+Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
+  </si>
+  <si>
+    <t>Defines how configuration management database (cmdb) supports operational resilience across IBS/CIF (mapping, tolerances, scenarios, decisions).
+Basic: partial inventory and informal tolerances. 
+Advanced: approved tolerances, tested scenarios and tracked findings.
+Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
+  </si>
+  <si>
+    <t>Defines how data quality and integrity monitoring supports operational resilience across IBS/CIF (mapping, tolerances, scenarios, decisions).
+Basic: partial inventory and informal tolerances. 
+Advanced: approved tolerances, tested scenarios and tracked findings.
+Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
+  </si>
+  <si>
+    <t>Defines how dependency resilience engineering supports operational resilience across IBS/CIF (mapping, tolerances, scenarios, decisions).
+Basic: partial inventory and informal tolerances. 
+Advanced: approved tolerances, tested scenarios and tracked findings.
+Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
+  </si>
+  <si>
+    <t>Defines how end-to-end process mapping supports operational resilience across IBS/CIF (mapping, tolerances, scenarios, decisions).
+Basic: partial inventory and informal tolerances. 
+Advanced: approved tolerances, tested scenarios and tracked findings.
+Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
+  </si>
+  <si>
+    <t>Defines how global regulatory mapping supports operational resilience across IBS/CIF (mapping, tolerances, scenarios, decisions).
+Basic: partial inventory and informal tolerances. 
+Advanced: approved tolerances, tested scenarios and tracked findings.
+Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
+  </si>
+  <si>
+    <t>Defines how important business services register supports operational resilience across IBS/CIF (mapping, tolerances, scenarios, decisions).
+Basic: partial inventory and informal tolerances. 
+Advanced: approved tolerances, tested scenarios and tracked findings.
+Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
+  </si>
+  <si>
+    <t>Defines how information lifecycle management supports operational resilience across IBS/CIF (mapping, tolerances, scenarios, decisions).
+Basic: partial inventory and informal tolerances. 
+Advanced: approved tolerances, tested scenarios and tracked findings.
+Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
+  </si>
+  <si>
+    <t>Defines how master data and reference architecture supports operational resilience across IBS/CIF (mapping, tolerances, scenarios, decisions).
+Basic: partial inventory and informal tolerances. 
+Advanced: approved tolerances, tested scenarios and tracked findings.
+Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
+  </si>
+  <si>
+    <t>Defines how plan accessibility and usability supports operational resilience across IBS/CIF (mapping, tolerances, scenarios, decisions).
+Basic: partial inventory and informal tolerances. 
+Advanced: approved tolerances, tested scenarios and tracked findings.
+Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
+  </si>
+  <si>
+    <t>Defines how process standardization and optimization supports operational resilience across IBS/CIF (mapping, tolerances, scenarios, decisions).
+Basic: partial inventory and informal tolerances. 
+Advanced: approved tolerances, tested scenarios and tracked findings.
+Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
+  </si>
+  <si>
+    <t>Defines how quantified impact tolerance statements supports operational resilience across IBS/CIF (mapping, tolerances, scenarios, decisions).
+Basic: partial inventory and informal tolerances. 
+Advanced: approved tolerances, tested scenarios and tracked findings.
+Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
+  </si>
+  <si>
+    <t>Defines how remote work and flexibility supports operational resilience across IBS/CIF (mapping, tolerances, scenarios, decisions).
+Basic: partial inventory and informal tolerances. 
+Advanced: approved tolerances, tested scenarios and tracked findings.
+Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
+  </si>
+  <si>
+    <t>Defines how residual risk rating methodology supports operational resilience across IBS/CIF (mapping, tolerances, scenarios, decisions).
+Basic: partial inventory and informal tolerances. 
+Advanced: approved tolerances, tested scenarios and tracked findings.
+Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
+  </si>
+  <si>
+    <t>Defines how scenario-based stress testing supports operational resilience across IBS/CIF (mapping, tolerances, scenarios, decisions).
+Basic: partial inventory and informal tolerances. 
+Advanced: approved tolerances, tested scenarios and tracked findings.
+Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
+  </si>
+  <si>
+    <t>Defines how service level architecture supports operational resilience across IBS/CIF (mapping, tolerances, scenarios, decisions).
+Basic: partial inventory and informal tolerances. 
+Advanced: approved tolerances, tested scenarios and tracked findings.
+Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
+  </si>
+  <si>
+    <t>Defines how severe-but-plausible scenario library supports operational resilience across IBS/CIF (mapping, tolerances, scenarios, decisions).
+Basic: partial inventory and informal tolerances. 
+Advanced: approved tolerances, tested scenarios and tracked findings.
+Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
+  </si>
+  <si>
+    <t>Defines how single point of failure identification supports operational resilience across IBS/CIF (mapping, tolerances, scenarios, decisions).
+Basic: partial inventory and informal tolerances. 
+Advanced: approved tolerances, tested scenarios and tracked findings.
+Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
+  </si>
+  <si>
+    <t>Defines how supply chain risk assessment supports operational resilience across IBS/CIF (mapping, tolerances, scenarios, decisions).
+Basic: partial inventory and informal tolerances. 
+Advanced: approved tolerances, tested scenarios and tracked findings.
+Evidence: registers, tolerance records (minutes/%), test reports, actions and governance papers.</t>
+  </si>
+  <si>
+    <t>All critical IBS/CIF covered within cycle.</t>
   </si>
 </sst>
 </file>
@@ -6339,120 +6339,6 @@
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6542,11 +6428,20 @@
       </border>
     </dxf>
     <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color auto="1"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -6556,11 +6451,49 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color auto="1"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -6570,6 +6503,41 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color auto="1"/>
@@ -6577,10 +6545,42 @@
       </border>
     </dxf>
     <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -6717,12 +6717,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38CE8689-9F1C-43F9-B700-F298F69C440E}" name="Framework" displayName="Framework" ref="A1:I115" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
-  <autoFilter ref="A1:I115" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I115">
-    <sortCondition ref="A2:A115"/>
-    <sortCondition ref="B2:B115"/>
-    <sortCondition ref="C2:C115"/>
-  </sortState>
+  <autoFilter ref="A1:I115" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Alternative sourcing strategies"/>
+        <filter val="Outsourcing policy and strategy"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0093D61F-B69E-457B-A05D-E5B0AB1D0BA3}" name="Dimension"/>
     <tableColumn id="2" xr3:uid="{0FB31B3F-B70C-4D60-853D-8C2A86F33D4C}" name="Theme" dataDxfId="38"/>
@@ -6750,40 +6752,40 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B022752F-B219-4222-9DB2-E8982D75907C}" name="dimension_desc" displayName="dimension_desc" ref="A1:B10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="25" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B022752F-B219-4222-9DB2-E8982D75907C}" name="dimension_desc" displayName="dimension_desc" ref="A1:B10" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
   <autoFilter ref="A1:B10" xr:uid="{B022752F-B219-4222-9DB2-E8982D75907C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F84A265F-5D7B-45AD-8279-8FF81C0F8672}" name="Dimension" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{60EAC33C-0FF5-4068-8DD2-901DAA68762A}" name="Dimension_Description" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{F84A265F-5D7B-45AD-8279-8FF81C0F8672}" name="Dimension" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{60EAC33C-0FF5-4068-8DD2-901DAA68762A}" name="Dimension_Description" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4E66B40B-5A89-438A-BC55-C25A01018498}" name="theme_desc" displayName="theme_desc" ref="D1:E28" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowBorderDxfId="23" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4E66B40B-5A89-438A-BC55-C25A01018498}" name="theme_desc" displayName="theme_desc" ref="D1:E28" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
   <autoFilter ref="D1:E28" xr:uid="{4E66B40B-5A89-438A-BC55-C25A01018498}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2CBFB1F1-70AF-41E1-8963-46393F824366}" name="Theme" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{A4340CD8-0F94-40E6-8C80-D84D85A67C64}" name="Theme_Description" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{2CBFB1F1-70AF-41E1-8963-46393F824366}" name="Theme" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{A4340CD8-0F94-40E6-8C80-D84D85A67C64}" name="Theme_Description" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5E1C6B87-2747-458C-B3F5-EFCC110AE996}" name="topic_desc" displayName="topic_desc" ref="G1:H115" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5E1C6B87-2747-458C-B3F5-EFCC110AE996}" name="topic_desc" displayName="topic_desc" ref="G1:H115" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
   <autoFilter ref="G1:H115" xr:uid="{5E1C6B87-2747-458C-B3F5-EFCC110AE996}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{570AE7C9-317D-4313-93E3-1D765C0EE7B5}" name="Topic" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{9CB8E865-3D67-4610-B58B-5E6220390C74}" name="Topic_Description" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{570AE7C9-317D-4313-93E3-1D765C0EE7B5}" name="Topic" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{9CB8E865-3D67-4610-B58B-5E6220390C74}" name="Topic_Description" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4F92EA2F-6518-45D6-8E73-E52F6643E6B4}" name="theme_generic" displayName="theme_generic" ref="A1:G28" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4F92EA2F-6518-45D6-8E73-E52F6643E6B4}" name="theme_generic" displayName="theme_generic" ref="A1:G28" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="A1:G28" xr:uid="{4F92EA2F-6518-45D6-8E73-E52F6643E6B4}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{0E1C92DE-7F92-4C27-AF5C-C9BA9951D8D2}" name="Theme"/>
@@ -6799,15 +6801,15 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4012C250-9782-44B4-874A-ECEDAADCA7EF}" name="Acronyms" displayName="Acronyms" ref="A1:C42" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4012C250-9782-44B4-874A-ECEDAADCA7EF}" name="Acronyms" displayName="Acronyms" ref="A1:C42" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A1:C42" xr:uid="{4012C250-9782-44B4-874A-ECEDAADCA7EF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C42">
     <sortCondition ref="A1:A42"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{64DE9952-5C98-4FAA-B58E-954377CCAEE1}" name="Acronym"/>
-    <tableColumn id="2" xr3:uid="{CCE748DB-BD35-41F6-A6C5-B35F825B4553}" name="Full terminology" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{A87C3444-FD37-4FF7-A298-756975455F8A}" name="Meaning / Why it matters in this framework" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{CCE748DB-BD35-41F6-A6C5-B35F825B4553}" name="Full terminology" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A87C3444-FD37-4FF7-A298-756975455F8A}" name="Meaning / Why it matters in this framework" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7137,7 +7139,7 @@
   <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7198,9 +7200,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>28</v>
@@ -7209,27 +7211,27 @@
         <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>1368</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>1369</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>1148</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1149</v>
       </c>
       <c r="I2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>28</v>
@@ -7238,27 +7240,27 @@
         <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>1370</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>1371</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>1150</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>1151</v>
       </c>
       <c r="I3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>28</v>
@@ -7267,27 +7269,27 @@
         <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>1373</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>1152</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>1153</v>
       </c>
       <c r="I4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>28</v>
@@ -7296,27 +7298,27 @@
         <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>1374</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>1375</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>1154</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>1155</v>
       </c>
       <c r="I5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>29</v>
@@ -7325,27 +7327,27 @@
         <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>1376</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>1377</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>1156</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>1157</v>
       </c>
       <c r="I6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>29</v>
@@ -7354,27 +7356,27 @@
         <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>1378</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>1379</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>1158</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>1159</v>
       </c>
       <c r="I7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>29</v>
@@ -7383,27 +7385,27 @@
         <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>1380</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>1381</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>1160</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>1161</v>
       </c>
       <c r="I8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>29</v>
@@ -7412,27 +7414,27 @@
         <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>1382</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>1383</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>1162</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>1163</v>
       </c>
       <c r="I9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>30</v>
@@ -7441,27 +7443,27 @@
         <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>1384</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>1385</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>1164</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>1165</v>
       </c>
       <c r="I10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>30</v>
@@ -7470,27 +7472,27 @@
         <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>1386</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>1387</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>1166</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>1167</v>
       </c>
       <c r="I11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>30</v>
@@ -7499,27 +7501,27 @@
         <v>88</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>1388</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>1389</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>1168</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>1169</v>
       </c>
       <c r="I12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>30</v>
@@ -7528,27 +7530,27 @@
         <v>89</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>1390</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>1391</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>1170</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>1171</v>
       </c>
       <c r="I13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>37</v>
@@ -7557,27 +7559,27 @@
         <v>115</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>1392</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>1394</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I14" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>37</v>
@@ -7586,27 +7588,27 @@
         <v>114</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>1395</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>1396</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>1397</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I15" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>37</v>
@@ -7615,27 +7617,27 @@
         <v>116</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>1398</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>1399</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>1400</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I16" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>37</v>
@@ -7644,27 +7646,27 @@
         <v>117</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>1401</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>1402</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>1403</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>39</v>
@@ -7673,24 +7675,24 @@
         <v>162</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>1404</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>1405</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>1406</v>
-      </c>
       <c r="G18" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>39</v>
@@ -7699,27 +7701,27 @@
         <v>123</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>1407</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>1408</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>1178</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>1179</v>
       </c>
       <c r="I19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>39</v>
@@ -7728,27 +7730,27 @@
         <v>122</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>1409</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>1410</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>1180</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>1181</v>
       </c>
       <c r="I20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>39</v>
@@ -7757,27 +7759,27 @@
         <v>124</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>1411</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>1412</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>1182</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>1183</v>
       </c>
       <c r="I21" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>39</v>
@@ -7786,27 +7788,27 @@
         <v>125</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>1374</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>1375</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="I22" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>38</v>
@@ -7815,27 +7817,27 @@
         <v>121</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>1414</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>1185</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>1186</v>
       </c>
       <c r="I23" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>38</v>
@@ -7844,27 +7846,27 @@
         <v>120</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>1415</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>1416</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>1187</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>1188</v>
       </c>
       <c r="I24" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>38</v>
@@ -7873,27 +7875,27 @@
         <v>118</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>1417</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>1418</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>1189</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>1190</v>
       </c>
       <c r="I25" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>38</v>
@@ -7902,25 +7904,25 @@
         <v>119</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>1419</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>1420</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>1191</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>1192</v>
       </c>
       <c r="I26" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -7931,25 +7933,25 @@
         <v>141</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>1421</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>1422</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>1423</v>
-      </c>
       <c r="G27" s="2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I27" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -7960,25 +7962,25 @@
         <v>138</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>1424</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>1425</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I28" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -7989,25 +7991,25 @@
         <v>139</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>1427</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>1428</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>1429</v>
-      </c>
       <c r="G29" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I29" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -8018,25 +8020,25 @@
         <v>140</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>1430</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>1431</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>1432</v>
-      </c>
       <c r="G30" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="I30" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -8047,25 +8049,25 @@
         <v>142</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>1433</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>1434</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>1435</v>
-      </c>
       <c r="G31" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I31" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -8076,25 +8078,25 @@
         <v>145</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>1436</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>1437</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>1438</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="I32" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -8105,25 +8107,25 @@
         <v>144</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>1439</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>1440</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>1441</v>
-      </c>
       <c r="G33" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I33" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -8134,25 +8136,25 @@
         <v>143</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>1442</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>1443</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>1444</v>
-      </c>
       <c r="G34" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I34" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -8163,25 +8165,25 @@
         <v>146</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>1445</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>1446</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>1447</v>
-      </c>
       <c r="G35" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I35" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -8192,25 +8194,25 @@
         <v>147</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>1373</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="I36" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -8221,25 +8223,25 @@
         <v>148</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>1449</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>1450</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G37" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>1203</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>1204</v>
       </c>
       <c r="I37" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -8250,25 +8252,25 @@
         <v>149</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>1451</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>1452</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>1453</v>
-      </c>
       <c r="G38" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I38" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -8279,25 +8281,25 @@
         <v>63</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>1454</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>1455</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>1456</v>
-      </c>
       <c r="G39" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="I39" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -8308,25 +8310,25 @@
         <v>65</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>1457</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>1458</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>1459</v>
-      </c>
       <c r="G40" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I40" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -8337,25 +8339,25 @@
         <v>66</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>1460</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>1461</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>1462</v>
-      </c>
       <c r="G41" s="2" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I41" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -8366,25 +8368,25 @@
         <v>64</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>1463</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>1464</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>1465</v>
-      </c>
       <c r="G42" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I42" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -8395,25 +8397,25 @@
         <v>62</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>1407</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>1408</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I43" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -8424,25 +8426,25 @@
         <v>54</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>1466</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>1467</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>1468</v>
-      </c>
       <c r="G44" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="I44" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -8453,25 +8455,25 @@
         <v>53</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>1469</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>1470</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>1471</v>
-      </c>
       <c r="G45" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="I45" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -8482,25 +8484,25 @@
         <v>55</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>1472</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>1473</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>1474</v>
-      </c>
       <c r="G46" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="I46" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -8511,25 +8513,25 @@
         <v>56</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>1475</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>1476</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>1477</v>
-      </c>
       <c r="G47" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="I47" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -8540,25 +8542,25 @@
         <v>52</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>1478</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>1479</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>1480</v>
-      </c>
       <c r="G48" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="I48" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -8569,25 +8571,25 @@
         <v>59</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>1481</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>1482</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>1483</v>
-      </c>
       <c r="G49" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I49" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -8598,25 +8600,25 @@
         <v>61</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>1484</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>1485</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>1486</v>
-      </c>
       <c r="G50" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="I50" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -8627,25 +8629,25 @@
         <v>58</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>1487</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>1488</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>1489</v>
-      </c>
       <c r="G51" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="I51" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -8656,25 +8658,25 @@
         <v>60</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>1490</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>1491</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G52" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>1219</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>1220</v>
       </c>
       <c r="I52" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -8685,22 +8687,22 @@
         <v>165</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>1492</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>1493</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>1494</v>
-      </c>
       <c r="G53" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>1221</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -8711,25 +8713,25 @@
         <v>108</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>1495</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>1496</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G54" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>1223</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>1224</v>
       </c>
       <c r="I54" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -8740,25 +8742,25 @@
         <v>109</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>1498</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G55" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>1225</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>1226</v>
       </c>
       <c r="I55" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -8769,22 +8771,22 @@
         <v>163</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>1499</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>1500</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>1501</v>
-      </c>
       <c r="G56" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>1227</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -8795,25 +8797,25 @@
         <v>107</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>1502</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>1503</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>1229</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>1230</v>
       </c>
       <c r="I57" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -8824,25 +8826,25 @@
         <v>106</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>1504</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>1505</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G58" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>1231</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>1232</v>
       </c>
       <c r="I58" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -8853,25 +8855,25 @@
         <v>105</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>1506</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>1507</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>1508</v>
-      </c>
       <c r="G59" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>1233</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>1234</v>
       </c>
       <c r="I59" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -8882,25 +8884,25 @@
         <v>102</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>1509</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>1510</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G60" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>1235</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>1236</v>
       </c>
       <c r="I60" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -8911,25 +8913,25 @@
         <v>103</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>1511</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>1512</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>1237</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>1238</v>
       </c>
       <c r="I61" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -8940,25 +8942,25 @@
         <v>104</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>1513</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>1514</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G62" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>1239</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>1240</v>
       </c>
       <c r="I62" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -8969,25 +8971,25 @@
         <v>110</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>1515</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>1516</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G63" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>1241</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>1242</v>
       </c>
       <c r="I63" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -8998,25 +9000,25 @@
         <v>113</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>1517</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>1518</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>1243</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>1244</v>
       </c>
       <c r="I64" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -9027,25 +9029,25 @@
         <v>111</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>1374</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>1375</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="I65" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -9056,25 +9058,25 @@
         <v>112</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>1519</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>1520</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="G66" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>1246</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>1247</v>
       </c>
       <c r="I66" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -9085,25 +9087,25 @@
         <v>99</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>1521</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>1522</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G67" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>1248</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>1249</v>
       </c>
       <c r="I67" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -9114,25 +9116,25 @@
         <v>100</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>1523</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>1524</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G68" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>1250</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>1251</v>
       </c>
       <c r="I68" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -9143,25 +9145,25 @@
         <v>101</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>1525</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>1526</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G69" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>1252</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>1253</v>
       </c>
       <c r="I69" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -9172,25 +9174,25 @@
         <v>98</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>1527</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>1528</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G70" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>1254</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>1255</v>
       </c>
       <c r="I70" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -9201,25 +9203,25 @@
         <v>95</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>1529</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>1530</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G71" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H71" s="2" t="s">
         <v>1256</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>1257</v>
       </c>
       <c r="I71" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -9230,25 +9232,25 @@
         <v>96</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>1373</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="I72" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -9259,25 +9261,25 @@
         <v>94</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>1531</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>1532</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G73" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H73" s="2" t="s">
         <v>1259</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>1260</v>
       </c>
       <c r="I73" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -9288,25 +9290,25 @@
         <v>97</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>1533</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>1534</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="G74" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>1261</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>1262</v>
       </c>
       <c r="I74" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -9317,25 +9319,25 @@
         <v>91</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>1373</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="I75" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -9346,25 +9348,25 @@
         <v>90</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>1535</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>1536</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="G76" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>1264</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>1265</v>
       </c>
       <c r="I76" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -9375,25 +9377,25 @@
         <v>93</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>1537</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>1538</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G77" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H77" s="2" t="s">
         <v>1266</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>1267</v>
       </c>
       <c r="I77" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -9404,25 +9406,25 @@
         <v>92</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>1539</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>1540</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G78" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="H78" s="2" t="s">
         <v>1268</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>1269</v>
       </c>
       <c r="I78" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -9433,25 +9435,25 @@
         <v>152</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>1541</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>1542</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G79" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H79" s="2" t="s">
         <v>1270</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>1271</v>
       </c>
       <c r="I79" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -9462,25 +9464,25 @@
         <v>150</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>1373</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="I80" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -9491,25 +9493,25 @@
         <v>151</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>1543</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>1544</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>1545</v>
-      </c>
       <c r="G81" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="I81" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -9520,25 +9522,25 @@
         <v>153</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>1546</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>1548</v>
-      </c>
       <c r="G82" s="2" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="I82" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -9549,25 +9551,25 @@
         <v>157</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>1407</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>1408</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I83" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -9578,25 +9580,25 @@
         <v>155</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>1549</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>1550</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G84" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>1276</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>1277</v>
       </c>
       <c r="I84" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -9607,25 +9609,25 @@
         <v>154</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>1374</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>1375</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="I85" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -9636,25 +9638,25 @@
         <v>156</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>1551</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>1552</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G86" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>1279</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>1280</v>
       </c>
       <c r="I86" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -9665,25 +9667,25 @@
         <v>159</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>1553</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>1554</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>1555</v>
-      </c>
       <c r="G87" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="I87" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -9694,25 +9696,25 @@
         <v>160</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>1556</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="F88" s="2" t="s">
         <v>1557</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>1558</v>
-      </c>
       <c r="G88" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="I88" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -9723,25 +9725,25 @@
         <v>161</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="F89" s="2" t="s">
         <v>1560</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>1561</v>
-      </c>
       <c r="G89" s="2" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="I89" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -9752,25 +9754,25 @@
         <v>158</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>1562</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>1563</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>1564</v>
-      </c>
       <c r="G90" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="I90" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -9781,25 +9783,25 @@
         <v>67</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>1565</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="F91" s="2" t="s">
         <v>1566</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>1567</v>
-      </c>
       <c r="G91" s="2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="I91" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -9810,25 +9812,25 @@
         <v>70</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>1568</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>1569</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>1570</v>
-      </c>
       <c r="G92" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="I92" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -9839,25 +9841,25 @@
         <v>69</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>1571</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>1572</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>1573</v>
-      </c>
       <c r="G93" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="I93" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -9868,25 +9870,25 @@
         <v>68</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>1574</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="F94" s="2" t="s">
         <v>1575</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>1576</v>
-      </c>
       <c r="G94" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="I94" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -9897,25 +9899,25 @@
         <v>57</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>1577</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>1578</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G95" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H95" s="2" t="s">
         <v>1289</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>1290</v>
       </c>
       <c r="I95" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>14</v>
       </c>
@@ -9926,25 +9928,25 @@
         <v>73</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>1579</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>1580</v>
-      </c>
       <c r="F96" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G96" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H96" s="2" t="s">
         <v>1291</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>1292</v>
       </c>
       <c r="I96" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -9955,25 +9957,25 @@
         <v>72</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>1581</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>1582</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G97" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H97" s="2" t="s">
         <v>1293</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>1294</v>
       </c>
       <c r="I97" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -9984,25 +9986,25 @@
         <v>71</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>1583</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>1584</v>
-      </c>
       <c r="F98" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G98" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H98" s="2" t="s">
         <v>1295</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>1296</v>
       </c>
       <c r="I98" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>14</v>
       </c>
@@ -10013,25 +10015,25 @@
         <v>74</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>1585</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>1586</v>
-      </c>
       <c r="F99" s="2" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="G99" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H99" s="2" t="s">
         <v>1297</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>1298</v>
       </c>
       <c r="I99" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -10042,25 +10044,25 @@
         <v>77</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>1587</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>1588</v>
-      </c>
       <c r="F100" s="2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G100" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H100" s="2" t="s">
         <v>1299</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>1300</v>
       </c>
       <c r="I100" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>14</v>
       </c>
@@ -10071,25 +10073,25 @@
         <v>76</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>1589</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>1590</v>
-      </c>
       <c r="F101" s="2" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G101" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H101" s="2" t="s">
         <v>1301</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>1302</v>
       </c>
       <c r="I101" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -10100,48 +10102,48 @@
         <v>75</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>1591</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>1592</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="G102" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H102" s="2" t="s">
         <v>1303</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>1304</v>
       </c>
       <c r="I102" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>17</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>164</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>1593</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>1594</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>1595</v>
-      </c>
       <c r="G103" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H103" s="2" t="s">
         <v>1305</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -10155,25 +10157,25 @@
         <v>137</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>1596</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>1597</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>1598</v>
-      </c>
       <c r="G104" s="2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="I104" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -10184,25 +10186,25 @@
         <v>136</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>1599</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>1600</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G105" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H105" s="2" t="s">
         <v>1308</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>1309</v>
       </c>
       <c r="I105" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -10213,25 +10215,25 @@
         <v>135</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>1601</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>1602</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>1603</v>
-      </c>
       <c r="G106" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H106" s="2" t="s">
         <v>1310</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>1311</v>
       </c>
       <c r="I106" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -10242,25 +10244,25 @@
         <v>134</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>1604</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="F107" s="2" t="s">
         <v>1605</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>1606</v>
-      </c>
       <c r="G107" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="I107" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -10271,19 +10273,19 @@
         <v>129</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>1607</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>1608</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G108" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H108" s="2" t="s">
         <v>1313</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>1314</v>
       </c>
       <c r="I108" t="s">
         <v>166</v>
@@ -10300,25 +10302,25 @@
         <v>126</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>1609</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="F109" s="2" t="s">
         <v>1610</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>1611</v>
-      </c>
       <c r="G109" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H109" s="2" t="s">
         <v>1315</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>1316</v>
       </c>
       <c r="I109" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -10329,25 +10331,25 @@
         <v>127</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>1612</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>1613</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G110" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H110" s="2" t="s">
         <v>1317</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>1318</v>
       </c>
       <c r="I110" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -10358,25 +10360,25 @@
         <v>128</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>1614</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>1615</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G111" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H111" s="2" t="s">
         <v>1319</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>1320</v>
       </c>
       <c r="I111" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="375" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -10387,25 +10389,25 @@
         <v>132</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>1616</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>1617</v>
-      </c>
       <c r="F112" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="I112" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -10416,25 +10418,25 @@
         <v>131</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>1618</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>1619</v>
-      </c>
       <c r="F113" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G113" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H113" s="2" t="s">
         <v>1322</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>1323</v>
       </c>
       <c r="I113" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -10445,25 +10447,25 @@
         <v>130</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>1620</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>1621</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G114" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="H114" s="2" t="s">
         <v>1324</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>1325</v>
       </c>
       <c r="I114" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="345" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="360" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -10474,19 +10476,19 @@
         <v>133</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>1622</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>1623</v>
-      </c>
       <c r="F115" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="I115" t="s">
         <v>166</v>
@@ -10574,8 +10576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10630,7 +10632,7 @@
         <v>137</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -10650,12 +10652,12 @@
         <v>81</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>180</v>
@@ -10670,7 +10672,7 @@
         <v>74</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -10690,7 +10692,7 @@
         <v>110</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -10710,12 +10712,12 @@
         <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>183</v>
@@ -10730,7 +10732,7 @@
         <v>53</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -10750,7 +10752,7 @@
         <v>136</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -10770,7 +10772,7 @@
         <v>95</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1631</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -10790,7 +10792,7 @@
         <v>59</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -10804,7 +10806,7 @@
         <v>105</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -10818,7 +10820,7 @@
         <v>113</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -10832,7 +10834,7 @@
         <v>152</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -10846,7 +10848,7 @@
         <v>78</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -10860,7 +10862,7 @@
         <v>86</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -10874,7 +10876,7 @@
         <v>99</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>1638</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="17" spans="4:8" ht="90" x14ac:dyDescent="0.25">
@@ -10888,7 +10890,7 @@
         <v>132</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="18" spans="4:8" ht="75" x14ac:dyDescent="0.25">
@@ -10902,7 +10904,7 @@
         <v>131</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="19" spans="4:8" ht="60" x14ac:dyDescent="0.25">
@@ -10916,7 +10918,7 @@
         <v>115</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="20" spans="4:8" ht="60" x14ac:dyDescent="0.25">
@@ -10930,7 +10932,7 @@
         <v>114</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="21" spans="4:8" ht="60" x14ac:dyDescent="0.25">
@@ -10944,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="22" spans="4:8" ht="90" x14ac:dyDescent="0.25">
@@ -10958,7 +10960,7 @@
         <v>79</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="23" spans="4:8" ht="90" x14ac:dyDescent="0.25">
@@ -10972,7 +10974,7 @@
         <v>157</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="24" spans="4:8" ht="90" x14ac:dyDescent="0.25">
@@ -10986,7 +10988,7 @@
         <v>121</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="25" spans="4:8" ht="90" x14ac:dyDescent="0.25">
@@ -11000,7 +11002,7 @@
         <v>135</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="26" spans="4:8" ht="90" x14ac:dyDescent="0.25">
@@ -11014,7 +11016,7 @@
         <v>100</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>1648</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="27" spans="4:8" ht="60" x14ac:dyDescent="0.25">
@@ -11028,7 +11030,7 @@
         <v>117</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="28" spans="4:8" ht="90" x14ac:dyDescent="0.25">
@@ -11042,7 +11044,7 @@
         <v>96</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>1650</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="29" spans="4:8" ht="90" x14ac:dyDescent="0.25">
@@ -11050,7 +11052,7 @@
         <v>111</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="30" spans="4:8" ht="60" x14ac:dyDescent="0.25">
@@ -11058,7 +11060,7 @@
         <v>130</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="31" spans="4:8" ht="75" x14ac:dyDescent="0.25">
@@ -11066,7 +11068,7 @@
         <v>141</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="32" spans="4:8" ht="75" x14ac:dyDescent="0.25">
@@ -11074,7 +11076,7 @@
         <v>146</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="33" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11082,7 +11084,7 @@
         <v>91</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>1655</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="34" spans="7:8" ht="60" x14ac:dyDescent="0.25">
@@ -11090,7 +11092,7 @@
         <v>159</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="35" spans="7:8" ht="60" x14ac:dyDescent="0.25">
@@ -11098,7 +11100,7 @@
         <v>61</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="36" spans="7:8" ht="75" x14ac:dyDescent="0.25">
@@ -11106,7 +11108,7 @@
         <v>63</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="37" spans="7:8" ht="60" x14ac:dyDescent="0.25">
@@ -11114,7 +11116,7 @@
         <v>134</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="38" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11122,7 +11124,7 @@
         <v>150</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>1660</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="39" spans="7:8" ht="75" x14ac:dyDescent="0.25">
@@ -11130,7 +11132,7 @@
         <v>129</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>1661</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="40" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11138,7 +11140,7 @@
         <v>112</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>1662</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="41" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11146,7 +11148,7 @@
         <v>90</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>1663</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="42" spans="7:8" ht="105" x14ac:dyDescent="0.25">
@@ -11154,7 +11156,7 @@
         <v>123</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="43" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11162,7 +11164,7 @@
         <v>122</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>1665</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="44" spans="7:8" ht="75" x14ac:dyDescent="0.25">
@@ -11170,7 +11172,7 @@
         <v>55</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>1666</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="45" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11178,7 +11180,7 @@
         <v>101</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>1667</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="46" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11186,7 +11188,7 @@
         <v>83</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="47" spans="7:8" ht="60" x14ac:dyDescent="0.25">
@@ -11194,7 +11196,7 @@
         <v>67</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>1669</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="48" spans="7:8" ht="60" x14ac:dyDescent="0.25">
@@ -11202,7 +11204,7 @@
         <v>65</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>1670</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="49" spans="7:8" ht="60" x14ac:dyDescent="0.25">
@@ -11210,7 +11212,7 @@
         <v>160</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="50" spans="7:8" ht="60" x14ac:dyDescent="0.25">
@@ -11218,7 +11220,7 @@
         <v>102</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>1672</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="51" spans="7:8" ht="75" x14ac:dyDescent="0.25">
@@ -11226,7 +11228,7 @@
         <v>147</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>1673</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="52" spans="7:8" ht="75" x14ac:dyDescent="0.25">
@@ -11234,7 +11236,7 @@
         <v>138</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>1674</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="53" spans="7:8" ht="60" x14ac:dyDescent="0.25">
@@ -11242,7 +11244,7 @@
         <v>66</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>1675</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="54" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11250,7 +11252,7 @@
         <v>98</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>1676</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="55" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11258,7 +11260,7 @@
         <v>120</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>1677</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="56" spans="7:8" ht="105" x14ac:dyDescent="0.25">
@@ -11266,7 +11268,7 @@
         <v>118</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>1678</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="57" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11274,7 +11276,7 @@
         <v>155</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>1679</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="58" spans="7:8" ht="75" x14ac:dyDescent="0.25">
@@ -11282,7 +11284,7 @@
         <v>56</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>1680</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="59" spans="7:8" ht="75" x14ac:dyDescent="0.25">
@@ -11290,7 +11292,7 @@
         <v>58</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>1681</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="60" spans="7:8" ht="75" x14ac:dyDescent="0.25">
@@ -11298,7 +11300,7 @@
         <v>70</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>1682</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="61" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11306,7 +11308,7 @@
         <v>126</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>1683</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="62" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11314,7 +11316,7 @@
         <v>133</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>1684</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="63" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11322,7 +11324,7 @@
         <v>87</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>1685</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="64" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11330,7 +11332,7 @@
         <v>85</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>1686</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="65" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11338,7 +11340,7 @@
         <v>88</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>1687</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="66" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11346,7 +11348,7 @@
         <v>124</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>1688</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="67" spans="7:8" ht="75" x14ac:dyDescent="0.25">
@@ -11354,7 +11356,7 @@
         <v>77</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>1689</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="68" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11362,7 +11364,7 @@
         <v>93</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>1690</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="69" spans="7:8" ht="75" x14ac:dyDescent="0.25">
@@ -11370,7 +11372,7 @@
         <v>139</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>1691</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="70" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11378,7 +11380,7 @@
         <v>57</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>1692</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="71" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11386,7 +11388,7 @@
         <v>125</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>1693</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="72" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11394,7 +11396,7 @@
         <v>80</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>1694</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="73" spans="7:8" ht="60" x14ac:dyDescent="0.25">
@@ -11402,7 +11404,7 @@
         <v>161</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>1695</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="74" spans="7:8" ht="60" x14ac:dyDescent="0.25">
@@ -11410,7 +11412,7 @@
         <v>151</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>1696</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="75" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11418,7 +11420,7 @@
         <v>119</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>1697</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="76" spans="7:8" ht="60" x14ac:dyDescent="0.25">
@@ -11426,7 +11428,7 @@
         <v>153</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>1698</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="77" spans="7:8" ht="75" x14ac:dyDescent="0.25">
@@ -11434,7 +11436,7 @@
         <v>64</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>1699</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="78" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11442,7 +11444,7 @@
         <v>148</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>1700</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="79" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11450,7 +11452,7 @@
         <v>73</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>1701</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="80" spans="7:8" ht="60" x14ac:dyDescent="0.25">
@@ -11458,7 +11460,7 @@
         <v>103</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>1702</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="81" spans="7:8" ht="75" x14ac:dyDescent="0.25">
@@ -11466,7 +11468,7 @@
         <v>140</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>1703</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="82" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11474,7 +11476,7 @@
         <v>154</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>1704</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="83" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11482,7 +11484,7 @@
         <v>156</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>1705</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="84" spans="7:8" ht="60" x14ac:dyDescent="0.25">
@@ -11490,7 +11492,7 @@
         <v>69</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>1706</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="85" spans="7:8" ht="75" x14ac:dyDescent="0.25">
@@ -11498,7 +11500,7 @@
         <v>60</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>1707</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="86" spans="7:8" ht="75" x14ac:dyDescent="0.25">
@@ -11506,7 +11508,7 @@
         <v>68</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>1708</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="87" spans="7:8" ht="75" x14ac:dyDescent="0.25">
@@ -11514,7 +11516,7 @@
         <v>76</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>1709</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="88" spans="7:8" ht="75" x14ac:dyDescent="0.25">
@@ -11522,7 +11524,7 @@
         <v>142</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>1710</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="89" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11530,15 +11532,15 @@
         <v>72</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="90" spans="7:8" ht="90" x14ac:dyDescent="0.25">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="90" spans="7:8" ht="105" x14ac:dyDescent="0.25">
       <c r="G90" s="2" t="s">
         <v>108</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>1712</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="91" spans="7:8" ht="75" x14ac:dyDescent="0.25">
@@ -11546,7 +11548,7 @@
         <v>52</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>1713</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="92" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11554,7 +11556,7 @@
         <v>92</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>1714</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="93" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11562,7 +11564,7 @@
         <v>71</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>1715</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="94" spans="7:8" ht="75" x14ac:dyDescent="0.25">
@@ -11570,7 +11572,7 @@
         <v>145</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>1716</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="95" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11578,7 +11580,7 @@
         <v>94</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>1717</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="96" spans="7:8" ht="75" x14ac:dyDescent="0.25">
@@ -11586,7 +11588,7 @@
         <v>144</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>1718</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="97" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11594,7 +11596,7 @@
         <v>82</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>1719</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="98" spans="7:8" ht="60" x14ac:dyDescent="0.25">
@@ -11602,7 +11604,7 @@
         <v>158</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>1720</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="99" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11610,7 +11612,7 @@
         <v>97</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>1721</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="100" spans="7:8" ht="60" x14ac:dyDescent="0.25">
@@ -11618,7 +11620,7 @@
         <v>104</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>1722</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="101" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11626,7 +11628,7 @@
         <v>89</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>1723</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="102" spans="7:8" ht="60" x14ac:dyDescent="0.25">
@@ -11634,7 +11636,7 @@
         <v>127</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>1724</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="103" spans="7:8" ht="60" x14ac:dyDescent="0.25">
@@ -11642,15 +11644,15 @@
         <v>128</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="104" spans="7:8" ht="90" x14ac:dyDescent="0.25">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="104" spans="7:8" ht="105" x14ac:dyDescent="0.25">
       <c r="G104" s="2" t="s">
         <v>109</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>1726</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="105" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11658,7 +11660,7 @@
         <v>62</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>1727</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="106" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11666,7 +11668,7 @@
         <v>75</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>1728</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="107" spans="7:8" ht="75" x14ac:dyDescent="0.25">
@@ -11674,7 +11676,7 @@
         <v>143</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>1729</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="108" spans="7:8" ht="90" x14ac:dyDescent="0.25">
@@ -11682,15 +11684,15 @@
         <v>84</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="109" spans="7:8" ht="90" x14ac:dyDescent="0.25">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="109" spans="7:8" ht="105" x14ac:dyDescent="0.25">
       <c r="G109" s="2" t="s">
         <v>107</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>1731</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="110" spans="7:8" ht="75" x14ac:dyDescent="0.25">
@@ -11698,47 +11700,47 @@
         <v>149</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="111" spans="7:8" ht="90" x14ac:dyDescent="0.25">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="111" spans="7:8" ht="105" x14ac:dyDescent="0.25">
       <c r="G111" s="2" t="s">
         <v>106</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="112" spans="7:8" ht="165" x14ac:dyDescent="0.25">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="112" spans="7:8" ht="180" x14ac:dyDescent="0.25">
       <c r="G112" s="2" t="s">
         <v>165</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="113" spans="7:8" ht="375" x14ac:dyDescent="0.25">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="113" spans="7:8" ht="405" x14ac:dyDescent="0.25">
       <c r="G113" s="2" t="s">
         <v>162</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="114" spans="7:8" ht="360" x14ac:dyDescent="0.25">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="114" spans="7:8" ht="390" x14ac:dyDescent="0.25">
       <c r="G114" s="2" t="s">
         <v>163</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="115" spans="7:8" ht="375" x14ac:dyDescent="0.25">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="115" spans="7:8" ht="405" x14ac:dyDescent="0.25">
       <c r="G115" s="2" t="s">
         <v>164</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>1737</v>
+        <v>1717</v>
       </c>
     </row>
   </sheetData>
@@ -12438,10 +12440,10 @@
         <v>310</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -12479,10 +12481,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>1023</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -12520,13 +12522,13 @@
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>1021</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -12586,13 +12588,13 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>1045</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>1046</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -12619,21 +12621,21 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>1049</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>1051</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1052</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>354</v>
@@ -12641,35 +12643,35 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>1031</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>1063</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -12685,57 +12687,57 @@
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>1054</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>1055</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>1037</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>1142</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>1143</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>1060</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>1058</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -12751,35 +12753,35 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>1018</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>1132</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>1034</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -12795,13 +12797,13 @@
     </row>
     <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>1066</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -12839,35 +12841,35 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>1040</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>1027</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>1043</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -14393,7 +14395,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B58" t="s">
         <v>28</v>
@@ -14419,7 +14421,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B59" t="s">
         <v>28</v>
@@ -14445,7 +14447,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B60" t="s">
         <v>28</v>
@@ -14471,7 +14473,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B61" t="s">
         <v>28</v>
@@ -14497,7 +14499,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B62" t="s">
         <v>28</v>
@@ -14523,7 +14525,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B63" t="s">
         <v>28</v>
@@ -14549,7 +14551,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B64" t="s">
         <v>28</v>
@@ -14575,7 +14577,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B65" t="s">
         <v>28</v>
@@ -14601,7 +14603,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B66" t="s">
         <v>28</v>
@@ -14627,7 +14629,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B67" t="s">
         <v>28</v>
@@ -14653,7 +14655,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B68" t="s">
         <v>28</v>
@@ -14679,7 +14681,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B69" t="s">
         <v>28</v>
@@ -14705,7 +14707,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B70" t="s">
         <v>29</v>
@@ -14731,7 +14733,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B71" t="s">
         <v>29</v>
@@ -14757,7 +14759,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B72" t="s">
         <v>29</v>
@@ -14783,7 +14785,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B73" t="s">
         <v>29</v>
@@ -14809,7 +14811,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B74" t="s">
         <v>29</v>
@@ -14835,7 +14837,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B75" t="s">
         <v>29</v>
@@ -14861,7 +14863,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B76" t="s">
         <v>29</v>
@@ -14887,7 +14889,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B77" t="s">
         <v>29</v>
@@ -14913,7 +14915,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B78" t="s">
         <v>29</v>
@@ -14939,7 +14941,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B79" t="s">
         <v>29</v>
@@ -14965,7 +14967,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B80" t="s">
         <v>29</v>
@@ -14991,7 +14993,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B81" t="s">
         <v>30</v>
@@ -15017,7 +15019,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B82" t="s">
         <v>30</v>
@@ -15043,7 +15045,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B83" t="s">
         <v>30</v>
@@ -15069,7 +15071,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B84" t="s">
         <v>30</v>
@@ -15095,7 +15097,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B85" t="s">
         <v>30</v>
@@ -15121,7 +15123,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B86" t="s">
         <v>30</v>
@@ -15147,7 +15149,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
@@ -15173,7 +15175,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B88" t="s">
         <v>30</v>
@@ -15199,7 +15201,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B89" t="s">
         <v>30</v>
@@ -15225,7 +15227,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B90" t="s">
         <v>30</v>
@@ -15251,7 +15253,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B91" t="s">
         <v>30</v>
@@ -15277,7 +15279,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B92" t="s">
         <v>30</v>
@@ -16759,7 +16761,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B149" t="s">
         <v>37</v>
@@ -16785,7 +16787,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B150" t="s">
         <v>37</v>
@@ -16811,7 +16813,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B151" t="s">
         <v>37</v>
@@ -16837,7 +16839,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B152" t="s">
         <v>37</v>
@@ -16863,7 +16865,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B153" t="s">
         <v>37</v>
@@ -16889,7 +16891,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B154" t="s">
         <v>37</v>
@@ -16915,7 +16917,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B155" t="s">
         <v>37</v>
@@ -16941,7 +16943,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B156" t="s">
         <v>37</v>
@@ -16967,7 +16969,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B157" t="s">
         <v>38</v>
@@ -16993,7 +16995,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B158" t="s">
         <v>38</v>
@@ -17019,7 +17021,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B159" t="s">
         <v>38</v>
@@ -17045,7 +17047,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B160" t="s">
         <v>38</v>
@@ -17071,7 +17073,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B161" t="s">
         <v>38</v>
@@ -17097,7 +17099,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B162" t="s">
         <v>38</v>
@@ -17123,7 +17125,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B163" t="s">
         <v>38</v>
@@ -17149,7 +17151,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B164" t="s">
         <v>38</v>
@@ -17175,7 +17177,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B165" t="s">
         <v>38</v>
@@ -17201,7 +17203,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B166" t="s">
         <v>38</v>
@@ -17227,7 +17229,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B167" t="s">
         <v>38</v>
@@ -17253,7 +17255,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B168" t="s">
         <v>38</v>
@@ -17279,7 +17281,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B169" t="s">
         <v>39</v>
@@ -17305,7 +17307,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B170" t="s">
         <v>39</v>
@@ -17331,7 +17333,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B171" t="s">
         <v>39</v>
@@ -17357,7 +17359,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B172" t="s">
         <v>39</v>
@@ -17383,7 +17385,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B173" t="s">
         <v>39</v>
@@ -17409,7 +17411,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B174" t="s">
         <v>39</v>
@@ -17435,7 +17437,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B175" t="s">
         <v>39</v>
@@ -17461,7 +17463,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B176" t="s">
         <v>39</v>
@@ -17487,7 +17489,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B177" t="s">
         <v>39</v>
@@ -17513,7 +17515,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B178" t="s">
         <v>39</v>
@@ -17539,7 +17541,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B179" t="s">
         <v>39</v>
@@ -17565,7 +17567,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B180" t="s">
         <v>39</v>
@@ -22038,7 +22040,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B137" t="s">
         <v>28</v>
@@ -22055,7 +22057,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B138" t="s">
         <v>28</v>
@@ -22072,7 +22074,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B139" t="s">
         <v>28</v>
@@ -22089,7 +22091,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B140" t="s">
         <v>28</v>
@@ -22106,7 +22108,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B141" t="s">
         <v>28</v>
@@ -22123,7 +22125,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B142" t="s">
         <v>28</v>
@@ -22140,7 +22142,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B143" t="s">
         <v>28</v>
@@ -22157,7 +22159,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B144" t="s">
         <v>28</v>
@@ -22174,7 +22176,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B145" t="s">
         <v>28</v>
@@ -22191,7 +22193,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B146" t="s">
         <v>28</v>
@@ -22208,7 +22210,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B147" t="s">
         <v>28</v>
@@ -22225,7 +22227,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B148" t="s">
         <v>28</v>
@@ -22242,7 +22244,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B149" t="s">
         <v>28</v>
@@ -22259,7 +22261,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B150" t="s">
         <v>28</v>
@@ -22276,7 +22278,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B151" t="s">
         <v>28</v>
@@ -22293,7 +22295,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B152" t="s">
         <v>28</v>
@@ -22310,7 +22312,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B153" t="s">
         <v>28</v>
@@ -22327,7 +22329,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B154" t="s">
         <v>28</v>
@@ -22344,7 +22346,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B155" t="s">
         <v>28</v>
@@ -22361,7 +22363,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B156" t="s">
         <v>28</v>
@@ -22378,7 +22380,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B157" t="s">
         <v>29</v>
@@ -22395,7 +22397,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B158" t="s">
         <v>29</v>
@@ -22412,7 +22414,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B159" t="s">
         <v>29</v>
@@ -22429,7 +22431,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B160" t="s">
         <v>29</v>
@@ -22446,7 +22448,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B161" t="s">
         <v>29</v>
@@ -22463,7 +22465,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B162" t="s">
         <v>29</v>
@@ -22480,7 +22482,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B163" t="s">
         <v>29</v>
@@ -22497,7 +22499,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B164" t="s">
         <v>29</v>
@@ -22514,7 +22516,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B165" t="s">
         <v>29</v>
@@ -22531,7 +22533,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B166" t="s">
         <v>29</v>
@@ -22548,7 +22550,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B167" t="s">
         <v>29</v>
@@ -22565,7 +22567,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B168" t="s">
         <v>29</v>
@@ -22582,7 +22584,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B169" t="s">
         <v>29</v>
@@ -22599,7 +22601,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B170" t="s">
         <v>29</v>
@@ -22616,7 +22618,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B171" t="s">
         <v>29</v>
@@ -22633,7 +22635,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B172" t="s">
         <v>29</v>
@@ -22650,7 +22652,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B173" t="s">
         <v>29</v>
@@ -22667,7 +22669,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B174" t="s">
         <v>29</v>
@@ -22684,7 +22686,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B175" t="s">
         <v>29</v>
@@ -22701,7 +22703,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B176" t="s">
         <v>29</v>
@@ -22718,7 +22720,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B177" t="s">
         <v>30</v>
@@ -22735,7 +22737,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B178" t="s">
         <v>30</v>
@@ -22752,7 +22754,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B179" t="s">
         <v>30</v>
@@ -22769,7 +22771,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B180" t="s">
         <v>30</v>
@@ -22786,7 +22788,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B181" t="s">
         <v>30</v>
@@ -22803,7 +22805,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B182" t="s">
         <v>30</v>
@@ -22820,7 +22822,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B183" t="s">
         <v>30</v>
@@ -22837,7 +22839,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B184" t="s">
         <v>30</v>
@@ -22854,7 +22856,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B185" t="s">
         <v>30</v>
@@ -22871,7 +22873,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B186" t="s">
         <v>30</v>
@@ -22888,7 +22890,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B187" t="s">
         <v>30</v>
@@ -22905,7 +22907,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B188" t="s">
         <v>30</v>
@@ -22922,7 +22924,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B189" t="s">
         <v>30</v>
@@ -22939,7 +22941,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B190" t="s">
         <v>30</v>
@@ -22956,7 +22958,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B191" t="s">
         <v>30</v>
@@ -22973,7 +22975,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B192" t="s">
         <v>30</v>
@@ -22990,7 +22992,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B193" t="s">
         <v>30</v>
@@ -23007,7 +23009,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B194" t="s">
         <v>30</v>
@@ -23024,7 +23026,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B195" t="s">
         <v>30</v>
@@ -23041,7 +23043,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B196" t="s">
         <v>30</v>
@@ -25098,7 +25100,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B317" t="s">
         <v>37</v>
@@ -25115,7 +25117,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B318" t="s">
         <v>37</v>
@@ -25132,7 +25134,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B319" t="s">
         <v>37</v>
@@ -25149,7 +25151,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B320" t="s">
         <v>37</v>
@@ -25166,7 +25168,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B321" t="s">
         <v>37</v>
@@ -25183,7 +25185,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B322" t="s">
         <v>37</v>
@@ -25200,7 +25202,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B323" t="s">
         <v>37</v>
@@ -25217,7 +25219,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B324" t="s">
         <v>37</v>
@@ -25234,7 +25236,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B325" t="s">
         <v>37</v>
@@ -25251,7 +25253,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B326" t="s">
         <v>37</v>
@@ -25268,7 +25270,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B327" t="s">
         <v>37</v>
@@ -25285,7 +25287,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B328" t="s">
         <v>37</v>
@@ -25302,7 +25304,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B329" t="s">
         <v>37</v>
@@ -25319,7 +25321,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B330" t="s">
         <v>37</v>
@@ -25336,7 +25338,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B331" t="s">
         <v>37</v>
@@ -25353,7 +25355,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B332" t="s">
         <v>37</v>
@@ -25370,7 +25372,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B333" t="s">
         <v>37</v>
@@ -25387,7 +25389,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B334" t="s">
         <v>37</v>
@@ -25404,7 +25406,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B335" t="s">
         <v>37</v>
@@ -25421,7 +25423,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B336" t="s">
         <v>37</v>
@@ -25438,7 +25440,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B337" t="s">
         <v>38</v>
@@ -25455,7 +25457,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B338" t="s">
         <v>38</v>
@@ -25472,7 +25474,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B339" t="s">
         <v>38</v>
@@ -25489,7 +25491,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B340" t="s">
         <v>38</v>
@@ -25506,7 +25508,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B341" t="s">
         <v>38</v>
@@ -25523,7 +25525,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B342" t="s">
         <v>38</v>
@@ -25540,7 +25542,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B343" t="s">
         <v>38</v>
@@ -25557,7 +25559,7 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B344" t="s">
         <v>38</v>
@@ -25574,7 +25576,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B345" t="s">
         <v>38</v>
@@ -25591,7 +25593,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B346" t="s">
         <v>38</v>
@@ -25608,7 +25610,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B347" t="s">
         <v>38</v>
@@ -25625,7 +25627,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B348" t="s">
         <v>38</v>
@@ -25642,7 +25644,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B349" t="s">
         <v>38</v>
@@ -25659,7 +25661,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B350" t="s">
         <v>38</v>
@@ -25676,7 +25678,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B351" t="s">
         <v>38</v>
@@ -25693,7 +25695,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B352" t="s">
         <v>38</v>
@@ -25710,7 +25712,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B353" t="s">
         <v>38</v>
@@ -25727,7 +25729,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B354" t="s">
         <v>38</v>
@@ -25744,7 +25746,7 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B355" t="s">
         <v>38</v>
@@ -25761,7 +25763,7 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B356" t="s">
         <v>38</v>
@@ -25778,7 +25780,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B357" t="s">
         <v>39</v>
@@ -25795,7 +25797,7 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B358" t="s">
         <v>39</v>
@@ -25812,7 +25814,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B359" t="s">
         <v>39</v>
@@ -25829,7 +25831,7 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B360" t="s">
         <v>39</v>
@@ -25846,7 +25848,7 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B361" t="s">
         <v>39</v>
@@ -25863,7 +25865,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B362" t="s">
         <v>39</v>
@@ -25880,7 +25882,7 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B363" t="s">
         <v>39</v>
@@ -25897,7 +25899,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B364" t="s">
         <v>39</v>
@@ -25914,7 +25916,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B365" t="s">
         <v>39</v>
@@ -25931,7 +25933,7 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B366" t="s">
         <v>39</v>
@@ -25948,7 +25950,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B367" t="s">
         <v>39</v>
@@ -25965,7 +25967,7 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B368" t="s">
         <v>39</v>
@@ -25982,7 +25984,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B369" t="s">
         <v>39</v>
@@ -25999,7 +26001,7 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B370" t="s">
         <v>39</v>
@@ -26016,7 +26018,7 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B371" t="s">
         <v>39</v>
@@ -26033,7 +26035,7 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B372" t="s">
         <v>39</v>
@@ -26050,7 +26052,7 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B373" t="s">
         <v>39</v>
@@ -26067,7 +26069,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B374" t="s">
         <v>39</v>
@@ -26084,7 +26086,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B375" t="s">
         <v>39</v>
@@ -26101,7 +26103,7 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B376" t="s">
         <v>39</v>
@@ -29178,7 +29180,7 @@
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B557" t="s">
         <v>39</v>
@@ -29195,7 +29197,7 @@
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B558" t="s">
         <v>39</v>
@@ -29212,7 +29214,7 @@
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B559" t="s">
         <v>39</v>
@@ -29229,7 +29231,7 @@
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B560" t="s">
         <v>39</v>
@@ -29246,7 +29248,7 @@
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B561" t="s">
         <v>39</v>
@@ -29343,7 +29345,7 @@
         <v>499</v>
       </c>
       <c r="E566" t="s">
-        <v>1002</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
@@ -29360,7 +29362,7 @@
         <v>495</v>
       </c>
       <c r="E567" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
@@ -29377,7 +29379,7 @@
         <v>496</v>
       </c>
       <c r="E568" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
@@ -29394,7 +29396,7 @@
         <v>497</v>
       </c>
       <c r="E569" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
@@ -29411,7 +29413,7 @@
         <v>498</v>
       </c>
       <c r="E570" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
@@ -29428,7 +29430,7 @@
         <v>499</v>
       </c>
       <c r="E571" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
@@ -29445,7 +29447,7 @@
         <v>495</v>
       </c>
       <c r="E572" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
@@ -29462,7 +29464,7 @@
         <v>496</v>
       </c>
       <c r="E573" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
@@ -29479,7 +29481,7 @@
         <v>497</v>
       </c>
       <c r="E574" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
@@ -29496,7 +29498,7 @@
         <v>498</v>
       </c>
       <c r="E575" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
@@ -29513,7 +29515,7 @@
         <v>499</v>
       </c>
       <c r="E576" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
   </sheetData>
@@ -29546,24 +29548,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1015</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
@@ -29586,7 +29588,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -29609,7 +29611,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -29632,7 +29634,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -29655,7 +29657,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
@@ -29678,7 +29680,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>

--- a/app/source_data/Maturity_Assessment_Data.xlsx
+++ b/app/source_data/Maturity_Assessment_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\maturity-assessment-2\app\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF23DE21-EE76-46A7-943F-1862CB300F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1434B1BF-DE0E-4E8D-AE39-4D8A2F7EEE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="735" windowWidth="42600" windowHeight="13050" tabRatio="822" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="735" windowWidth="42600" windowHeight="13050" tabRatio="822" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enhanced Framework" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="1637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="1704">
   <si>
     <t>Dimension</t>
   </si>
@@ -481,27 +481,9 @@
     <t>Topic_Description</t>
   </si>
   <si>
-    <t>How the Board and executive set direction, allocate accountability, and oversee resilience through policy, risk appetite and assurance—so that impact tolerances drive strategy and funding.</t>
-  </si>
-  <si>
-    <t>How the organisation identifies, assesses, treats, and monitors operational and technology risks—including quantified impact tolerances and scenario analysis.</t>
-  </si>
-  <si>
-    <t>How the firm analyses impacts, designs continuity strategies, maintains plans and proves recoverability through exercises and technical fail-over aligned to RTO/RPO/SRTO.</t>
-  </si>
-  <si>
     <t>How critical services and processes are mapped end‑to‑end with people, data, technology and third‑party dependencies to remove single points of failure.</t>
   </si>
   <si>
-    <t>How ICT is governed, architected, protected and recoverable—covering identity, vulnerability, monitoring, backup/restore, red‑teaming and automated fail‑over.</t>
-  </si>
-  <si>
-    <t>How the firm commands a crisis and communicates with staff, customers and regulators—using clear activation triggers, logs, and rehearsed playbooks.</t>
-  </si>
-  <si>
-    <t>How outsourcing is governed across the lifecycle—materiality, due diligence, contractual safeguards, continuous monitoring, and exit/transition readiness.</t>
-  </si>
-  <si>
     <t>How leadership behaviours, skills, training and wellbeing enable people to prevent, detect and recover from disruption while sustaining performance.</t>
   </si>
   <si>
@@ -979,9 +961,6 @@
     <t>Key Performance Indicator</t>
   </si>
   <si>
-    <t>Key Risk Indicator</t>
-  </si>
-  <si>
     <t>Natural Language Processing</t>
   </si>
   <si>
@@ -1006,72 +985,6 @@
     <t>Virtual Private Network</t>
   </si>
   <si>
-    <t>Algorithmic systems supporting analytics/automation in resilience controls (e.g., monitoring, triage).</t>
-  </si>
-  <si>
-    <t>Statistical learning techniques used for anomaly detection, log analysis, automated classification of incidents/evidence.</t>
-  </si>
-  <si>
-    <t>Capability to continue products/services at predefined acceptable levels during disruption; drives BC lifecycle and exercises.</t>
-  </si>
-  <si>
-    <t>Global prudential standard-setter; POR/PSMOR principles shape regulators’ expectations for operational resilience.</t>
-  </si>
-  <si>
-    <t>Determines disruption impacts, critical processes, and priorities that set RTO/RPO/SRTO targets.</t>
-  </si>
-  <si>
-    <t>Authoritative repository of configuration items/relationships for dependency mapping and change control.</t>
-  </si>
-  <si>
-    <t>EU rulebook harmonising ICT risk management, incident reporting, TLPT, and critical ICT third-party oversight.</t>
-  </si>
-  <si>
-    <t>Technology/facility restoration of IT services and data after disruption; implements recovery strategies meeting targets.</t>
-  </si>
-  <si>
-    <t>Integrated approach aligning governance structures, enterprise risk and compliance obligations across the programme.</t>
-  </si>
-  <si>
-    <t>Tiered UK incident command structure often adapted to corporate incident/CIM playbooks.</t>
-  </si>
-  <si>
-    <t>Publisher of ISO 22301 (BCMS), ISO/IEC 27001, etc.—widely used resilience standards.</t>
-  </si>
-  <si>
-    <t>Computing/communications systems underpinning important business services and resilience capabilities.</t>
-  </si>
-  <si>
-    <t>Measures operational performance of processes (e.g., plan currency, exercise completion), often paired with KRIs.</t>
-  </si>
-  <si>
-    <t>Leading metrics signalling changes in risk exposure or control effectiveness (e.g., incident backlog, vendor SLA breaches).</t>
-  </si>
-  <si>
-    <t>AI technique for analysing unstructured text (incident write-ups, audit findings, customer comms) to extract risk signals.</t>
-  </si>
-  <si>
-    <t>Role-assignment model clarifying ownership for governance, plans, response and testing activities.</t>
-  </si>
-  <si>
-    <t>Maximum tolerable data loss (time-based) to be recovered after an interruption.</t>
-  </si>
-  <si>
-    <t>Target time to restore a service after disruption; drives DR design and testing cadence.</t>
-  </si>
-  <si>
-    <t>Target performance/availability commitments used internally and in third-party contracts; informs resilience obligations.</t>
-  </si>
-  <si>
-    <t>FCA-designated accountable roles under SM&amp;CR (e.g., SMF24 Chief Operations), relevant for op-res governance.</t>
-  </si>
-  <si>
-    <t>Network segmentation to isolate critical systems and reduce blast radius in disruptions/cyber events.</t>
-  </si>
-  <si>
-    <t>Encrypted remote-access or site-to-site connectivity—core for continuity workarounds and secure operations.</t>
-  </si>
-  <si>
     <t>RAF</t>
   </si>
   <si>
@@ -1087,9 +1000,6 @@
     <t>DPIA</t>
   </si>
   <si>
-    <t>a process required under GDPR/UK GDPR for processing likely to result in high risk to individuals, used to identify and minimise data-protection risks (see GDPR Art. 35 and ICO guidance)</t>
-  </si>
-  <si>
     <t>BCMS</t>
   </si>
   <si>
@@ -1105,9 +1015,6 @@
     <t>System Recovery Time Objective</t>
   </si>
   <si>
-    <t>the maximum amount of time a business can afford for a system, application, or process to be offline after a disruption before it causes unacceptable damage to its operations (See RTO)</t>
-  </si>
-  <si>
     <t>MTTA</t>
   </si>
   <si>
@@ -1117,45 +1024,30 @@
     <t>Mean Time To Assist / Acknowledge</t>
   </si>
   <si>
-    <t>the average time it takes for an alert to be acknowledged by a human after it has been triggered</t>
-  </si>
-  <si>
     <t>RCA</t>
   </si>
   <si>
     <t>Root Cause Analysis</t>
   </si>
   <si>
-    <t>a systematic process used to find the underlying causes of problems or failures, rather than just addressing the symptoms</t>
-  </si>
-  <si>
     <t>OCIR</t>
   </si>
   <si>
     <t>Operational Continuity in Resolution (PRA/BoE)</t>
   </si>
   <si>
-    <t>a banking regulation requiring banks to ensure critical services can continue to operate during a resolution or restructuring process</t>
-  </si>
-  <si>
     <t>SOC</t>
   </si>
   <si>
     <t>Security Operations Centre</t>
   </si>
   <si>
-    <t>a centralized unit that monitors and protects an organization from cyber threats</t>
-  </si>
-  <si>
     <t>TLPT</t>
   </si>
   <si>
     <t>Threat-Led Penetration Testing.</t>
   </si>
   <si>
-    <t>a security measure that simulates real-world cyberattacks to test an organization's resilience against sophisticated threats by mimicking the tactics of actual malicious actors to uncover vulnerabilities and test detection and response capabilities</t>
-  </si>
-  <si>
     <t>JESIP</t>
   </si>
   <si>
@@ -1189,42 +1081,27 @@
     <t>Open Compliance &amp; Ethics Group</t>
   </si>
   <si>
-    <t>a global nonprofit think tank that developed the concept of Governance, Risk, and Compliance (GRC) and provides resources, education, and certification to help organizations achieve "Principled Performance"</t>
-  </si>
-  <si>
     <t>PSMOR</t>
   </si>
   <si>
     <t>Prinicipals for the Sound Management of Operational Risk</t>
   </si>
   <si>
-    <t>a set of international guidelines from the Basel Committee on Banking Supervision (BCBS) that promotes effective operational risk management in banks cover key areas like governance, the risk management environment (including information and communication technology (ICT), business continuity, and third-party risk), and the role of disclosure</t>
-  </si>
-  <si>
     <t>POR</t>
   </si>
   <si>
-    <t>a set of guidelines for banks to ensure they can deliver critical operations even when facing disruptions. The summary includes principles for governance, managing third-party dependencies, incident response, and resilient Information and Communication Technology (ICT) including cyber security. Key objectives are to enable banks to withstand, adapt to, and recover from severe events by identifying critical assets, managing risks, and establishing strong business continuity and disaster recovery plans</t>
-  </si>
-  <si>
     <t>NIST</t>
   </si>
   <si>
     <t>National Institute of Standards and Technology</t>
   </si>
   <si>
-    <t>a U.S. government agency that develops standards and guidelines for various fields, most notably cybersecurity, and has a prominent Cybersecurity Framework</t>
-  </si>
-  <si>
     <t>RRP</t>
   </si>
   <si>
     <t>Recovery and Resolution Planning</t>
   </si>
   <si>
-    <t>a framework for financial institutions to prepare for severe financial stress Recovery: how a firm will restore its capital and liquidity positions during periods of severe stress. Resolution: ensure that a failing financial institution can be resolved in an orderly way that minimises costs to the public and avoids destabilising the financial system. Designed to prevent systemic risks, avoid taxpayer bailouts and promote resilience</t>
-  </si>
-  <si>
     <t>A documented methodology classifies third-party engagements using defined factors and cut-offs (e.g., IBS/CIF mapping, client volume, data sensitivity, substitutability, financial/regulatory exposure, geo/sub-outsourcing chain). The workflow is standardised (intake → screen → assess → peer review → determination), determinations are recorded in the register with rationale and owner sign-off, and triggers for re-assessment are defined (usage growth, incident, scope change). Outputs feed due-diligence depth and oversight tiering.</t>
   </si>
   <si>
@@ -1397,9 +1274,6 @@
   </si>
   <si>
     <t>Risk Appetite Statement</t>
-  </si>
-  <si>
-    <t>a formal document outlining the amount and type of risk an organization is willing to accept to achieve its strategic objectives. It serves as a guiding framework for decision-making, defining acceptable and unacceptable risks in areas like innovation, operations, and security, ensuring consistency and transparency across the organization</t>
   </si>
   <si>
     <t>A KRI standard defines metric formulas, thresholds/bands, data sources, refresh frequency, ownership, and drill-down paths. The dashboard auto-ingests data, applies thresholds, and routes alerts with de-dup/suppression rules; lineage and change logs are maintained.</t>
@@ -3462,9 +3336,6 @@
 Insights are extended to suppliers and sub-tiers; cross-entity harmonisation reduces systemic hotspots.</t>
   </si>
   <si>
-    <t>Board-approved resilience appetite is translated into measurable limits and KRIs for services, suppliers and technology, monitored with trusted MI (headroom/burn-rate, trends) and enforced by pre-agreed escalation playbooks. Breaches drive time-boxed actions (mitigate, accept with expiry and compensating controls, or invest), with evidenceable decisions, waivers and—where applicable—regulatory notifications.</t>
-  </si>
-  <si>
     <t>Comprehensive Resilience Testing</t>
   </si>
   <si>
@@ -5365,9 +5236,6 @@
     <t>FCA SYSC (systems &amp; controls), DORA governance (improvement cycle), ISO 22301 improvement</t>
   </si>
   <si>
-    <t>Systematic intake and translation of supervisory feedback (letters, meetings, calls) into concrete changes to policies, controls, training and MI—tracked to completion with effectiveness checks.</t>
-  </si>
-  <si>
     <t>• Feedback captured but not actioned or embedded; repeat concerns
 • Ambiguous ownership; actions scattered across teams
 • No proof of effectiveness; credibility erodes</t>
@@ -5774,9 +5642,6 @@
     <t>FCA PS21/3 (governance/MI/tolerance oversight), SYSC (systems &amp; controls), SMCR (“reasonable steps”), DORA (governance, performance monitoring), BCBS POR (governance), COSO ERM (performance &amp; review).</t>
   </si>
   <si>
-    <t>Mechanisms that involve staff in spotting risks, improving controls and owning outcomes for the services they support—via ideas pipelines, problem‑solving forums and recognition tied to resilience results.</t>
-  </si>
-  <si>
     <t>• Low participation in improvement; fixes imposed top‑down and ignored
 • Incidents repeat because frontline insights are not captured
 • Surveys show disengagement; attrition harms continuity</t>
@@ -5867,9 +5732,6 @@
     <t>FCA whistleblowing rules, SMCR conduct, ISO 22316 (people &amp; culture)</t>
   </si>
   <si>
-    <t>Everyday behaviours that anticipate failure, design for recovery, and prioritise customer outcomes—e.g., pre‑mortems, error budgets, graceful degradation and disciplined incident hygiene.</t>
-  </si>
-  <si>
     <t>• Heroics replace process; risky shortcuts during pressure
 • Reactive fire‑fighting crowds out prevention
 • Customer outcomes traded away without clear rationale</t>
@@ -6364,9 +6226,6 @@
   </si>
   <si>
     <t>ISO/IEC 27031 (ICT readiness), SRE patterns, FCA PS21/3 (continuity), DORA ICT RMF</t>
-  </si>
-  <si>
-    <t>Structured assessment of technology change/operations risk across the stack (infra, platform, app, data) considering threat, vulnerability, complexity, dependencies and controls—tied to appetite and tolerances.</t>
   </si>
   <si>
     <t>• Assessments inconsistent; blind spots around dependencies
@@ -6667,6 +6526,353 @@
 • Rota eligibility logs, change-approver lists and commander accreditation records.
 • Trend MI showing reduced human-error incidents and faster recovery for certified teams.
 • External certifications or accredited courses (where applicable) and audit/2LoD reviews.</t>
+  </si>
+  <si>
+    <t>IBS</t>
+  </si>
+  <si>
+    <t>Important Business Service</t>
+  </si>
+  <si>
+    <t>An Important Business Service (IBS) is defined as a service provided by a firm to one or more of its clients which, if disrupted, could: 
+- Cause intolerable levels of harm to any one or more of the firm's clients; or
+- Pose a risk to the soundness, stability or resilience of the UK financial system or the orderly operation of the financial markets</t>
+  </si>
+  <si>
+    <t>CIF</t>
+  </si>
+  <si>
+    <t>Critical or Important Function</t>
+  </si>
+  <si>
+    <t>A function is defined as "critical or important" if its disruption, failure, or defective performance would materially impair any of the following for a financial entity: 
+- The continuing compliance with the conditions and obligations of its authorisation, or with other applicable financial services legislation
+- Its financial performance
+- The soundness or continuity of its services and activities</t>
+  </si>
+  <si>
+    <t>Algorithmic systems supporting analytics/automation in resilience controls (e.g., monitoring, triage)</t>
+  </si>
+  <si>
+    <t>Capability to continue products/services at predefined acceptable levels during disruption; drives BC lifecycle and exercises</t>
+  </si>
+  <si>
+    <t>Global prudential standard-setter; POR/PSMOR principles shape regulators’ expectations for operational resilience</t>
+  </si>
+  <si>
+    <t>Determines disruption impacts, critical processes, and priorities that set RTO/RPO/SRTO targets</t>
+  </si>
+  <si>
+    <t>Authoritative repository of configuration items/relationships for dependency mapping and change control</t>
+  </si>
+  <si>
+    <t>Measures operational performance of processes (e.g., plan currency, exercise completion), often paired with KRIs</t>
+  </si>
+  <si>
+    <t>Leading metrics signalling changes in risk exposure or control effectiveness (e.g., incident backlog, vendor SLA breaches)</t>
+  </si>
+  <si>
+    <t>Statistical learning techniques used for anomaly detection, log analysis, automated classification of incidents/evidence</t>
+  </si>
+  <si>
+    <t>A U.S. government agency that develops standards and guidelines for various fields, most notably cybersecurity, and has a prominent Cybersecurity Framework</t>
+  </si>
+  <si>
+    <t>Encrypted remote-access or site-to-site connectivit. Core for continuity workarounds and secure operations</t>
+  </si>
+  <si>
+    <t>MAO</t>
+  </si>
+  <si>
+    <t>Maximum Acceptable Outage</t>
+  </si>
+  <si>
+    <t>KPIs</t>
+  </si>
+  <si>
+    <t>KRIs</t>
+  </si>
+  <si>
+    <t>Key Performance Indicators</t>
+  </si>
+  <si>
+    <t>Key Risk Indicators</t>
+  </si>
+  <si>
+    <t>SLO</t>
+  </si>
+  <si>
+    <t>Service Level Objective</t>
+  </si>
+  <si>
+    <t>A specific, measurable target for a service's reliability that is set to meet customer expectations, e.g. 99.9% uptime target, a latency goal of under 300ms, or an error rate below 0.5%</t>
+  </si>
+  <si>
+    <t>FCA-designated accountable roles under SM&amp;CR (e.g., SMF24 Chief Operations), relevant for Op Res governance</t>
+  </si>
+  <si>
+    <t>A banking regulation requiring banks to ensure critical services can continue to operate during a resolution or restructuring process</t>
+  </si>
+  <si>
+    <t>A set of guidelines for banks to ensure they can deliver critical operations even when facing disruptions. The summary includes principles for governance, managing third-party dependencies, incident response, and resilient Information and Communication Technology (ICT) including cyber security. Key objectives are to enable banks to withstand, adapt to, and recover from severe events by identifying critical assets, managing risks, and establishing strong business continuity and disaster recovery plans</t>
+  </si>
+  <si>
+    <t>Aset of international guidelines from the Basel Committee on Banking Supervision (BCBS) that promotes effective operational risk management in banks cover key areas like governance, the risk management environment (including information and communication technology (ICT), business continuity, and third-party risk), and the role of disclosure</t>
+  </si>
+  <si>
+    <t>A systematic process used to find the underlying causes of problems or failures, rather than just addressing the symptoms</t>
+  </si>
+  <si>
+    <t>A framework for financial institutions to prepare for severe financial stress Recovery: how a firm will restore its capital and liquidity positions during periods of severe stress. Resolution: ensure that a failing financial institution can be resolved in an orderly way that minimises costs to the public and avoids destabilising the financial system. Designed to prevent systemic risks, avoid taxpayer bailouts and promote resilience</t>
+  </si>
+  <si>
+    <t>The maximum amount of time a business can afford for a system, application, or process to be offline after a disruption before it causes unacceptable damage to its operations (See RTO)</t>
+  </si>
+  <si>
+    <t>UX</t>
+  </si>
+  <si>
+    <t>User eXperience</t>
+  </si>
+  <si>
+    <t>Network segmentation to isolate critical systems and reduce blast radius in disruptions/cyber events</t>
+  </si>
+  <si>
+    <t>A person's overall perceptions and emotional responses resulting from the use, or anticipated use, of a product, system, or service. This encompasses all aspects of the end-user's interaction with the company, its services, and its products, not just the user interface (UI)</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>Domain Name System</t>
+  </si>
+  <si>
+    <t>The internet's phone. DNS converts the text-based URL you type into a browser into a numerical IP address that computers use to communicate with each other</t>
+  </si>
+  <si>
+    <t>Role-assignment model clarifying ownership for governance, plans, response and testing activities</t>
+  </si>
+  <si>
+    <t>AI technique for analysing unstructured text (incident write-ups, audit findings, customer comms) to extract risk signals</t>
+  </si>
+  <si>
+    <t>Maximum tolerable data loss (time-based) to be recovered after an interruption</t>
+  </si>
+  <si>
+    <t>Target performance/availability commitments used internally and in third-party contracts; informs resilience obligations</t>
+  </si>
+  <si>
+    <t>Target time to restore a service after disruption; drives DR design and testing cadence</t>
+  </si>
+  <si>
+    <t>Publisher of widely used resilience standards such as ISO 22301 (Business Continuity Management System), ISO/IEC 27001 (Information Security Management System)</t>
+  </si>
+  <si>
+    <t>Computing/communications systems underpinning important business services and resilience capabilities</t>
+  </si>
+  <si>
+    <t>Tiered UK incident command structure often adapted to corporate incident/CIM playbooks</t>
+  </si>
+  <si>
+    <t>Integrated approach aligning governance structures, enterprise risk and compliance obligations across the programme</t>
+  </si>
+  <si>
+    <t>Technology/facility restoration of IT services and data after disruption; implements recovery strategies meeting targets</t>
+  </si>
+  <si>
+    <t>A process required under GDPR/UK GDPR for processing likely to result in high risk to individuals, used to identify and minimise data-protection risks (see GDPR Article 35 and ICO guidance)</t>
+  </si>
+  <si>
+    <t>EU rulebook harmonising ICT risk management, incident reporting, information security, and critical ICT third-party oversight</t>
+  </si>
+  <si>
+    <t>SLAs</t>
+  </si>
+  <si>
+    <t>Service Level Agreements</t>
+  </si>
+  <si>
+    <t>SLOs</t>
+  </si>
+  <si>
+    <t>Service Level Objectives</t>
+  </si>
+  <si>
+    <t>CBES</t>
+  </si>
+  <si>
+    <t>Cybersecurity Banking Evaluation Skills Testing</t>
+  </si>
+  <si>
+    <t>A framework is designed by the BoE, PRA &amp; FCA to enhance the cyber resilience of systemically important financial institutions. It promotes intelligence-led penetration testing that simulates real-world cyberattacks based on current threat intelligence</t>
+  </si>
+  <si>
+    <t>MTTD</t>
+  </si>
+  <si>
+    <t>The average time it takes for an alert to be acknowledged by a human after it has been triggered</t>
+  </si>
+  <si>
+    <t>Meant Time to Detect</t>
+  </si>
+  <si>
+    <t>A key performance indicator (KPI) used in IT operations, DevOps, and cybersecurity to measure the average amount of time that passes between when an incident or failure occurs and when it is first discovered by monitoring systems or human analysts</t>
+  </si>
+  <si>
+    <t>TIBER</t>
+  </si>
+  <si>
+    <t>Threat Intelligence-Based Ethical Red-teaming</t>
+  </si>
+  <si>
+    <t>TIBER-EU</t>
+  </si>
+  <si>
+    <t>European framework for Threat Intelligence-Based Ethical Red Teaming</t>
+  </si>
+  <si>
+    <t>A standardised approach for the financial sector and other critical entities to test and improve their cyber resilience by simulating real-life cyberattacks</t>
+  </si>
+  <si>
+    <t>A comprehensive framework, initially developed by the European Central Bank (ECB) and European national central banks, designed to enhance the cyber resilience of financial institutions and other critical infrastructure entities by simulating real-life cyberattacks</t>
+  </si>
+  <si>
+    <t>FCA</t>
+  </si>
+  <si>
+    <t>PRA</t>
+  </si>
+  <si>
+    <t>CI-CD</t>
+  </si>
+  <si>
+    <t>FSB</t>
+  </si>
+  <si>
+    <t>CIRR</t>
+  </si>
+  <si>
+    <t>PIRs</t>
+  </si>
+  <si>
+    <t>Post Implementation Reviews</t>
+  </si>
+  <si>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>High Availability</t>
+  </si>
+  <si>
+    <t>A system's ability to remain operational and accessible for a high percentage of time (often aiming for "five nines" or 99.999% uptime) with minimal to zero downtime, often achieved through design principles like redundancy, automatic failover and load balancing</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>Fault Tolerance</t>
+  </si>
+  <si>
+    <t>A system design approach that ensures continuous operation with minimal downtime (guaranteeing around 99.999% availability or no more than 5.25 minutes of downtime in a year)</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Financial Conduct Authority</t>
+  </si>
+  <si>
+    <t>The conduct regulator for financial services firms in the UK, responsible for protecting consumers, maintaining the stability of the financial system, and promoting healthy competition among financial service providers. It sets standards for firms and takes action when they are not met, ensuring consumers get a fair deal and markets function well</t>
+  </si>
+  <si>
+    <t>Prudential Regulation Authority</t>
+  </si>
+  <si>
+    <t>The PRA supervises banks, insurers, building societies, credit unions, and designated investment firms to ensure they meet regulatory requirements. It focuses on the financial stability of the firms it regulates, ensuring they have adequate capital and liquidity to operate safely</t>
+  </si>
+  <si>
+    <t>Continuous Integration and Continuous Deployment</t>
+  </si>
+  <si>
+    <t>A set of DevOps practices that automates the building, testing, and deployment of software. This process helps development teams release code more frequently, reliably, and with fewer errors by merging code changes into a central repository and running automated checks and deployments.</t>
+  </si>
+  <si>
+    <t>Financial Stability Board</t>
+  </si>
+  <si>
+    <t>Cyber Incident Response and Recovery</t>
+  </si>
+  <si>
+    <t>A toolkit of effective practices developed by the FSB to assist financial institutions in managing cyber incidents to limit any related financial stability risks</t>
+  </si>
+  <si>
+    <t>Management Information</t>
+  </si>
+  <si>
+    <t>The data and reports used by management to monitor, analyse and forecast business operations to support planning, decision-making and improvement. It provides insight into an organisation's performance, helps identify trends, and allows for strategic improvements</t>
+  </si>
+  <si>
+    <t>A structured framework that helps organisations prepare for, respond to, and recover from disruptive incidents to minimise downtime and impact on critical business functions. Most often aligned to ISO 22301</t>
+  </si>
+  <si>
+    <t>The maximum length of time that a business function, service, or process can be unavailable or disrupted without causing unacceptable damage or irreparable harm to the organisation</t>
+  </si>
+  <si>
+    <t>A global nonprofit think tank that developed the concept of Governance, Risk, and Compliance (GRC) and provides resources, education, and certification to help organisations achieve "Principled Performance"</t>
+  </si>
+  <si>
+    <t>A formal document outlining the amount and type of risk an organisation is willing to accept to achieve its strategic objectives. It serves as a guiding framework for decision-making, defining acceptable and unacceptable risks in areas like innovation, operations, and security, ensuring consistency and transparency across the organisation</t>
+  </si>
+  <si>
+    <t>Acentralised unit that monitors and protects an organisation from cyber threats</t>
+  </si>
+  <si>
+    <t>A security measure that simulates real-world cyberattacks to test an organisation's resilience against sophisticated threats by mimicking the tactics of actual malicious actors to uncover vulnerabilities and test detection and response capabilities. The primary goal of TIBER is to simulate real-world, targeted cyberattacks in a controlled and safe manner to test an organisation's ability to protect, detect, and respond to sophisticated threats</t>
+  </si>
+  <si>
+    <t>An international body, hosted by the Bank for International Settlements (BIS) in Basel, Switserland that monitors and makes recommendations about the global financial system. Established in 2009 by the G20 nations, it aims to coordinate national financial authorities and international standard-setting bodies to promote global financial stability and prevent future financial crises</t>
+  </si>
+  <si>
+    <t>How the Board and executive set direction, allocate accountability, and oversee resilience through policy, risk appetite and assurance, so that impact tolerances drive strategy and funding.</t>
+  </si>
+  <si>
+    <t>How the organisation identifies, assesses, treats, and monitors operational and technology risks, including quantified impact tolerances and scenario analysis.</t>
+  </si>
+  <si>
+    <t>How the firm assesses impacts, designs continuity strategies, maintains plans and proves recoverability through exercises and technical fail-over aligned to RTO/RPO/SRTO.</t>
+  </si>
+  <si>
+    <t>How ICT is governed, architected, protected and recoverable.Covering identity, vulnerability, monitoring, backup/restore, red‑teaming and automated fail‑over.</t>
+  </si>
+  <si>
+    <t>How the firm commands a crisis and communicates with staff, customers and regulators using clear activation triggers, logs, and rehearsed playbooks.</t>
+  </si>
+  <si>
+    <t>How outsourcing is governed across the lifecycle: materiality, due diligence, contractual safeguards, continuous monitoring, and exit/transition readiness.</t>
+  </si>
+  <si>
+    <t>Systematic intake and translation of supervisory feedback (letters, meetings, calls) into concrete changes to policies, controls, training and MI. Tracked to completion with effectiveness checks.</t>
+  </si>
+  <si>
+    <t>Board-approved resilience appetite is translated into measurable limits and KRIs for services, suppliers and technology, monitored with trusted MI (headroom/burn-rate, trends) and enforced by pre-agreed escalation playbooks. Breaches drive time-boxed actions (mitigate, accept with expiry and compensating controls, or invest), with evidenceable decisions, waivers and (where applicable) regulatory notifications.</t>
+  </si>
+  <si>
+    <t>Mechanisms that involve staff in spotting risks, improving controls and owning outcomes for the services they support via ideas pipelines, problem‑solving forums and recognition tied to resilience results.</t>
+  </si>
+  <si>
+    <t>Everyday behaviours that anticipate failure, design for recovery, and prioritise customer outcomes, e.g., pre‑mortems, error budgets, graceful degradation and disciplined incident hygiene.</t>
+  </si>
+  <si>
+    <t>Structured assessment of technology change/operations risk across the stack (infra, platform, app, data) considering threat, vulnerability, complexity, dependencies and controls, tied to appetite and tolerances.</t>
+  </si>
+  <si>
+    <t>ICT</t>
+  </si>
+  <si>
+    <t>Information and Communication Technology</t>
+  </si>
+  <si>
+    <t>All technologies used to create, process, store, transmit, and retrieve digital information</t>
   </si>
 </sst>
 </file>
@@ -7163,7 +7369,63 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38CE8689-9F1C-43F9-B700-F298F69C440E}" name="Framework" displayName="Framework" ref="A1:H104" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
-  <autoFilter ref="A1:H104" xr:uid="{38CE8689-9F1C-43F9-B700-F298F69C440E}"/>
+  <autoFilter xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" ref="A1:H104" xr:uid="{38CE8689-9F1C-43F9-B700-F298F69C440E}">
+    <filterColumn colId="6">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="x14">
+          <filters>
+            <x14:filter val="Qualitative: The Alternative workflow and manual processes process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Alternative workflow and manual processes; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Board-approved operational resilience strategy process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Board-approved operational resilience strategy; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Capital and liquidity buffers process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Capital and liquidity buffers; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Comprehensive BIA methodology process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Comprehensive BIA methodology; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Contract management and SLAs process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Contract management and SLAs; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Crisis activation and escalation process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Crisis activation and escalation; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Due diligence and onboarding process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Due diligence and onboarding; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Employee engagement and ownership process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Employee engagement and ownership; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Employee wellbeing programmes process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Employee wellbeing programmes; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Examination and inspection readiness process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Examination and inspection readiness; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Exception and waiver governance process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Exception and waiver governance; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Governance and oversight structure process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Governance and oversight structure; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Important business services register process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Important business services register; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Independent challenge and escalation mechanisms process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Independent challenge and escalation mechanisms; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Information lifecycle management process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Information lifecycle management; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Issue and action tracking workflow process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Issue and action tracking workflow; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Issue remediation and closure process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Issue remediation and closure; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Leadership commitment and messaging process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Leadership commitment and messaging; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Master data and reference architecture process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Master data and reference architecture; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Media and public relations process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Media and public relations; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Operational resilience governance structure process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Operational resilience governance structure; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Post-exercise analysis and improvement process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Post-exercise analysis and improvement; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Predictive risk analytics process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Predictive risk analytics; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Process standardization and optimization process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Process standardization and optimization; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Regulatory feedback integration process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Regulatory feedback integration; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Regulatory horizon scanning process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Regulatory horizon scanning; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Regulatory notification management process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Regulatory notification management; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Regulatory self-assessment processes process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Regulatory self-assessment processes; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Remote work and flexibility process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Remote work and flexibility; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Residual risk rating methodology process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Residual risk rating methodology; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Resilience mindset and behaviors process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Resilience mindset and behaviors; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Security operations and incident response process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Security operations and incident response; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Service level architecture process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Service level architecture; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Simulation and experiential learning process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Simulation and experiential learning; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Single point of failure identification process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Single point of failure identification; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Skills assessment and gap analysis process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Skills assessment and gap analysis; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Supervisory relationship management process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_MI on timeliness/quality of responses; repeat-issue rate trending down; risk-based playbooks for incident notifications._x000a_Pre-reads aligned to tolerance headroom and resilience MI; external feedback loops into policy/controls._x000a_Example: Dashboards/logs show targets met for Supervisory relationship management; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Supply chain risk assessment process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Supply chain risk assessment; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Version control and change management process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Version control and change management; variances generate actions with owners."/>
+            <x14:filter val="Qualitative: The Workforce contingency planning process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Workforce contingency planning; variances generate actions with owners."/>
+            <x14:filter val="The Standardized BC plan framework process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Searchable plan portal; usage/currency analytics; drills validate usability; defects flow to backlog; supplier access tested._x000a_KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Standardized BC plan framework; variances generate actions with owners."/>
+          </filters>
+        </mc:Choice>
+        <mc:Fallback>
+          <customFilters>
+            <customFilter val=""/>
+            <customFilter operator="notEqual" val=" "/>
+          </customFilters>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H104">
     <sortCondition ref="A2:A104"/>
     <sortCondition ref="B2:B104"/>
@@ -7250,10 +7512,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4012C250-9782-44B4-874A-ECEDAADCA7EF}" name="Acronyms" displayName="Acronyms" ref="A1:C42" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19">
-  <autoFilter ref="A1:C42" xr:uid="{4012C250-9782-44B4-874A-ECEDAADCA7EF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C42">
-    <sortCondition ref="A1:A42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4012C250-9782-44B4-874A-ECEDAADCA7EF}" name="Acronyms" displayName="Acronyms" ref="A1:C66" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19">
+  <autoFilter ref="A1:C66" xr:uid="{4012C250-9782-44B4-874A-ECEDAADCA7EF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C66">
+    <sortCondition ref="A1:A66"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{64DE9952-5C98-4FAA-B58E-954377CCAEE1}" name="Acronym"/>
@@ -7588,7 +7850,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7647,7 +7909,7 @@
     </row>
     <row r="2" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
@@ -7656,24 +7918,24 @@
         <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>649</v>
+        <v>607</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>650</v>
+        <v>608</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>464</v>
+        <v>422</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>25</v>
@@ -7682,24 +7944,24 @@
         <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>651</v>
+        <v>609</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>652</v>
+        <v>610</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>25</v>
@@ -7708,24 +7970,24 @@
         <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>653</v>
+        <v>611</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>654</v>
+        <v>612</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>468</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>25</v>
@@ -7734,50 +7996,50 @@
         <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>655</v>
+        <v>613</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>656</v>
+        <v>614</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>862</v>
+        <v>820</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>863</v>
+        <v>821</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>864</v>
+        <v>822</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>865</v>
+        <v>823</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>866</v>
+        <v>824</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>26</v>
@@ -7786,24 +8048,24 @@
         <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>657</v>
+        <v>615</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>658</v>
+        <v>616</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>428</v>
+        <v>387</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>473</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>26</v>
@@ -7812,50 +8074,50 @@
         <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>659</v>
+        <v>617</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>660</v>
+        <v>618</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>429</v>
+        <v>388</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>474</v>
+        <v>432</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>923</v>
+        <v>880</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>925</v>
+        <v>882</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>926</v>
+        <v>883</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>927</v>
+        <v>884</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>928</v>
+        <v>885</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>27</v>
@@ -7864,24 +8126,24 @@
         <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>661</v>
+        <v>619</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>662</v>
+        <v>620</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>476</v>
+        <v>434</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>477</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>27</v>
@@ -7890,24 +8152,24 @@
         <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>663</v>
+        <v>621</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>431</v>
+        <v>390</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>478</v>
+        <v>436</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>27</v>
@@ -7916,19 +8178,19 @@
         <v>75</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>665</v>
+        <v>623</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>666</v>
+        <v>624</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>432</v>
+        <v>391</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>480</v>
+        <v>438</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="150" x14ac:dyDescent="0.25">
@@ -7942,19 +8204,19 @@
         <v>119</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>690</v>
+        <v>648</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>692</v>
+        <v>650</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>500</v>
+        <v>458</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>618</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="150" x14ac:dyDescent="0.25">
@@ -7968,22 +8230,22 @@
         <v>116</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>693</v>
+        <v>651</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>694</v>
+        <v>652</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>695</v>
+        <v>653</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>501</v>
+        <v>459</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -7994,19 +8256,19 @@
         <v>117</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>696</v>
+        <v>654</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>697</v>
+        <v>655</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>698</v>
+        <v>656</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>502</v>
+        <v>460</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="150" x14ac:dyDescent="0.25">
@@ -8020,22 +8282,22 @@
         <v>118</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>700</v>
+        <v>658</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>701</v>
+        <v>659</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -8043,22 +8305,22 @@
         <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>930</v>
+        <v>887</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>931</v>
+        <v>888</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>932</v>
+        <v>889</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>933</v>
+        <v>890</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>934</v>
+        <v>891</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>935</v>
+        <v>892</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -8072,19 +8334,19 @@
         <v>121</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>702</v>
+        <v>660</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>703</v>
+        <v>661</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>704</v>
+        <v>662</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>622</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -8098,19 +8360,19 @@
         <v>120</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>705</v>
+        <v>663</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>706</v>
+        <v>664</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>707</v>
+        <v>665</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>505</v>
+        <v>463</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>623</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -8124,22 +8386,22 @@
         <v>122</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>708</v>
+        <v>666</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>709</v>
+        <v>667</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>710</v>
+        <v>668</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>506</v>
+        <v>464</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -8150,19 +8412,19 @@
         <v>123</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>653</v>
+        <v>611</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>654</v>
+        <v>612</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>711</v>
+        <v>669</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>507</v>
+        <v>465</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -8176,19 +8438,19 @@
         <v>124</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>712</v>
+        <v>670</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>713</v>
+        <v>671</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>448</v>
+        <v>407</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>508</v>
+        <v>466</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>509</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -8202,19 +8464,19 @@
         <v>125</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>714</v>
+        <v>672</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>715</v>
+        <v>673</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>716</v>
+        <v>674</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>510</v>
+        <v>468</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -8228,22 +8490,22 @@
         <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>717</v>
+        <v>675</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>718</v>
+        <v>676</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>719</v>
+        <v>677</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>511</v>
+        <v>469</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -8254,19 +8516,19 @@
         <v>58</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>720</v>
+        <v>678</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>721</v>
+        <v>679</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>722</v>
+        <v>680</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>512</v>
+        <v>470</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>628</v>
+        <v>586</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -8280,22 +8542,22 @@
         <v>56</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>723</v>
+        <v>681</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>724</v>
+        <v>682</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>725</v>
+        <v>683</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>513</v>
+        <v>471</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -8306,22 +8568,22 @@
         <v>55</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>676</v>
+        <v>634</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>677</v>
+        <v>635</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>514</v>
+        <v>472</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -8332,19 +8594,19 @@
         <v>48</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>726</v>
+        <v>684</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>727</v>
+        <v>685</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>728</v>
+        <v>686</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>515</v>
+        <v>473</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>630</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -8358,19 +8620,19 @@
         <v>47</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>729</v>
+        <v>687</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>730</v>
+        <v>688</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>731</v>
+        <v>689</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>631</v>
+        <v>589</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="165" x14ac:dyDescent="0.25">
@@ -8384,19 +8646,19 @@
         <v>49</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>732</v>
+        <v>690</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>733</v>
+        <v>691</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>734</v>
+        <v>692</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>632</v>
+        <v>590</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -8410,22 +8672,22 @@
         <v>50</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>735</v>
+        <v>693</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>736</v>
+        <v>694</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>737</v>
+        <v>695</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>518</v>
+        <v>476</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -8436,19 +8698,19 @@
         <v>46</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>738</v>
+        <v>696</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>739</v>
+        <v>697</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>740</v>
+        <v>698</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>519</v>
+        <v>477</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="150" x14ac:dyDescent="0.25">
@@ -8462,19 +8724,19 @@
         <v>53</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>741</v>
+        <v>699</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>742</v>
+        <v>700</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>743</v>
+        <v>701</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>520</v>
+        <v>478</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="150" x14ac:dyDescent="0.25">
@@ -8488,22 +8750,22 @@
         <v>54</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>744</v>
+        <v>702</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>745</v>
+        <v>703</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>746</v>
+        <v>704</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>521</v>
+        <v>479</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -8514,22 +8776,22 @@
         <v>52</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>747</v>
+        <v>705</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>748</v>
+        <v>706</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>749</v>
+        <v>707</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -8537,27 +8799,27 @@
         <v>20</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>916</v>
+        <v>874</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>917</v>
+        <v>875</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>918</v>
+        <v>876</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>919</v>
+        <v>877</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>920</v>
+        <v>878</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>921</v>
+        <v>879</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>34</v>
@@ -8566,50 +8828,50 @@
         <v>100</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>668</v>
+        <v>626</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>669</v>
+        <v>627</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>482</v>
+        <v>440</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>902</v>
+        <v>860</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>903</v>
+        <v>861</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>904</v>
+        <v>862</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>905</v>
+        <v>863</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>906</v>
+        <v>864</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>34</v>
@@ -8618,76 +8880,76 @@
         <v>101</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>670</v>
+        <v>628</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>671</v>
+        <v>629</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>672</v>
+        <v>630</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>483</v>
+        <v>441</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>940</v>
+        <v>897</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>673</v>
+        <v>631</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>674</v>
+        <v>632</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>675</v>
+        <v>633</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>900</v>
+        <v>858</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>676</v>
+        <v>634</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>677</v>
+        <v>635</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>36</v>
@@ -8696,27 +8958,27 @@
         <v>106</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>678</v>
+        <v>636</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>679</v>
+        <v>637</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>488</v>
+        <v>446</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>489</v>
+        <v>447</v>
       </c>
       <c r="J42" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>36</v>
@@ -8725,24 +8987,24 @@
         <v>107</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>680</v>
+        <v>638</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>681</v>
+        <v>639</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>420</v>
+        <v>379</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>490</v>
+        <v>448</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>35</v>
@@ -8751,24 +9013,24 @@
         <v>105</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>682</v>
+        <v>640</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>683</v>
+        <v>641</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>493</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>35</v>
@@ -8777,24 +9039,24 @@
         <v>104</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>684</v>
+        <v>642</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>685</v>
+        <v>643</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>35</v>
@@ -8803,24 +9065,24 @@
         <v>102</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>686</v>
+        <v>644</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>687</v>
+        <v>645</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>496</v>
+        <v>454</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>497</v>
+        <v>455</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>35</v>
@@ -8829,22 +9091,22 @@
         <v>103</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>688</v>
+        <v>646</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>689</v>
+        <v>647</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>498</v>
+        <v>456</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -8852,22 +9114,22 @@
         <v>32</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>939</v>
+        <v>896</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>750</v>
+        <v>708</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>751</v>
+        <v>709</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>752</v>
+        <v>710</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>523</v>
+        <v>481</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>524</v>
+        <v>482</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="165" x14ac:dyDescent="0.25">
@@ -8881,22 +9143,22 @@
         <v>94</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>753</v>
+        <v>711</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>754</v>
+        <v>712</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>525</v>
+        <v>483</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -8907,22 +9169,22 @@
         <v>95</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>755</v>
+        <v>713</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>756</v>
+        <v>714</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>407</v>
+        <v>366</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>527</v>
+        <v>485</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -8930,25 +9192,25 @@
         <v>32</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>938</v>
+        <v>895</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>757</v>
+        <v>715</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>758</v>
+        <v>716</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>759</v>
+        <v>717</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>529</v>
+        <v>487</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -8959,22 +9221,22 @@
         <v>93</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>760</v>
+        <v>718</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>761</v>
+        <v>719</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>531</v>
+        <v>489</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -8985,22 +9247,22 @@
         <v>92</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>762</v>
+        <v>720</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>763</v>
+        <v>721</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>404</v>
+        <v>363</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>533</v>
+        <v>491</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -9011,22 +9273,22 @@
         <v>91</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>764</v>
+        <v>722</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>765</v>
+        <v>723</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>766</v>
+        <v>724</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>535</v>
+        <v>493</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -9037,22 +9299,22 @@
         <v>88</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>767</v>
+        <v>725</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>768</v>
+        <v>726</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>401</v>
+        <v>360</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -9063,22 +9325,22 @@
         <v>89</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>769</v>
+        <v>727</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>770</v>
+        <v>728</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>539</v>
+        <v>497</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -9089,22 +9351,22 @@
         <v>90</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>771</v>
+        <v>729</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>772</v>
+        <v>730</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>541</v>
+        <v>499</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -9115,22 +9377,22 @@
         <v>96</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>773</v>
+        <v>731</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>774</v>
+        <v>732</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>408</v>
+        <v>367</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>543</v>
+        <v>501</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -9141,22 +9403,22 @@
         <v>99</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>775</v>
+        <v>733</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>776</v>
+        <v>734</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>545</v>
+        <v>503</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -9167,22 +9429,22 @@
         <v>97</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>655</v>
+        <v>613</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>656</v>
+        <v>614</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>547</v>
+        <v>505</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -9193,22 +9455,22 @@
         <v>98</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>777</v>
+        <v>735</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>778</v>
+        <v>736</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>548</v>
+        <v>506</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -9219,22 +9481,22 @@
         <v>85</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>779</v>
+        <v>737</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>780</v>
+        <v>738</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>445</v>
+        <v>404</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>550</v>
+        <v>508</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -9245,19 +9507,19 @@
         <v>86</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>446</v>
+        <v>405</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>552</v>
+        <v>510</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>553</v>
+        <v>511</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -9271,19 +9533,19 @@
         <v>87</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>783</v>
+        <v>741</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>784</v>
+        <v>742</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>554</v>
+        <v>512</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>555</v>
+        <v>513</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -9297,22 +9559,22 @@
         <v>84</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>785</v>
+        <v>743</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>786</v>
+        <v>744</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>556</v>
+        <v>514</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -9323,22 +9585,22 @@
         <v>81</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>787</v>
+        <v>745</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>788</v>
+        <v>746</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>558</v>
+        <v>516</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -9349,19 +9611,19 @@
         <v>82</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>653</v>
+        <v>611</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>654</v>
+        <v>612</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>442</v>
+        <v>401</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>560</v>
+        <v>518</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -9375,19 +9637,19 @@
         <v>80</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>789</v>
+        <v>747</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>790</v>
+        <v>748</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>440</v>
+        <v>399</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>561</v>
+        <v>519</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>562</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -9401,22 +9663,22 @@
         <v>83</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>791</v>
+        <v>749</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>792</v>
+        <v>750</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>443</v>
+        <v>402</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>563</v>
+        <v>521</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -9427,19 +9689,19 @@
         <v>77</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>653</v>
+        <v>611</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>654</v>
+        <v>612</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>437</v>
+        <v>396</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>565</v>
+        <v>523</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -9453,19 +9715,19 @@
         <v>76</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>793</v>
+        <v>751</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>794</v>
+        <v>752</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>566</v>
+        <v>524</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>567</v>
+        <v>525</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -9479,19 +9741,19 @@
         <v>79</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>795</v>
+        <v>753</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>796</v>
+        <v>754</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>439</v>
+        <v>398</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>568</v>
+        <v>526</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>569</v>
+        <v>527</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -9505,22 +9767,22 @@
         <v>78</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>797</v>
+        <v>755</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>798</v>
+        <v>756</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>438</v>
+        <v>397</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>570</v>
+        <v>528</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -9531,22 +9793,22 @@
         <v>128</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>799</v>
+        <v>757</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>800</v>
+        <v>758</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>455</v>
+        <v>413</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>572</v>
+        <v>530</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -9557,19 +9819,19 @@
         <v>126</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>653</v>
+        <v>611</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>654</v>
+        <v>612</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>574</v>
+        <v>532</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="270" x14ac:dyDescent="0.25">
@@ -9583,22 +9845,22 @@
         <v>127</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>801</v>
+        <v>759</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>802</v>
+        <v>760</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>803</v>
+        <v>761</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>575</v>
+        <v>533</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -9609,22 +9871,22 @@
         <v>132</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>676</v>
+        <v>634</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>677</v>
+        <v>635</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>576</v>
+        <v>534</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -9635,22 +9897,22 @@
         <v>130</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>804</v>
+        <v>762</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>805</v>
+        <v>763</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>422</v>
+        <v>381</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>577</v>
+        <v>535</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -9661,22 +9923,22 @@
         <v>129</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>655</v>
+        <v>613</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>656</v>
+        <v>614</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>421</v>
+        <v>380</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>579</v>
+        <v>537</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -9687,19 +9949,19 @@
         <v>131</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>806</v>
+        <v>764</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>807</v>
+        <v>765</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>423</v>
+        <v>382</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>580</v>
+        <v>538</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>581</v>
+        <v>539</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -9713,19 +9975,19 @@
         <v>133</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>808</v>
+        <v>766</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>809</v>
+        <v>767</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>810</v>
+        <v>768</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>582</v>
+        <v>540</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>639</v>
+        <v>597</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="225" x14ac:dyDescent="0.25">
@@ -9739,19 +10001,19 @@
         <v>134</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>811</v>
+        <v>769</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>812</v>
+        <v>770</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>813</v>
+        <v>771</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>583</v>
+        <v>541</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>640</v>
+        <v>598</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="225" x14ac:dyDescent="0.25">
@@ -9765,19 +10027,19 @@
         <v>135</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>814</v>
+        <v>772</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>815</v>
+        <v>773</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>816</v>
+        <v>774</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>584</v>
+        <v>542</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>641</v>
+        <v>599</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="240" x14ac:dyDescent="0.25">
@@ -9788,25 +10050,25 @@
         <v>45</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>870</v>
+        <v>828</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>871</v>
+        <v>829</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>872</v>
+        <v>830</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -9817,22 +10079,22 @@
         <v>59</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>817</v>
+        <v>775</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>818</v>
+        <v>776</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>819</v>
+        <v>777</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>585</v>
+        <v>543</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -9843,22 +10105,22 @@
         <v>62</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>820</v>
+        <v>778</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>821</v>
+        <v>779</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>822</v>
+        <v>780</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>586</v>
+        <v>544</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -9869,22 +10131,22 @@
         <v>61</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>823</v>
+        <v>781</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>824</v>
+        <v>782</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>825</v>
+        <v>783</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>587</v>
+        <v>545</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -9895,22 +10157,22 @@
         <v>60</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>826</v>
+        <v>784</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>827</v>
+        <v>785</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>828</v>
+        <v>786</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>588</v>
+        <v>546</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -9921,19 +10183,19 @@
         <v>51</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>829</v>
+        <v>787</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>830</v>
+        <v>788</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>589</v>
+        <v>547</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>590</v>
+        <v>548</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -9947,22 +10209,22 @@
         <v>64</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>831</v>
+        <v>789</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>832</v>
+        <v>790</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>591</v>
+        <v>549</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -9973,22 +10235,22 @@
         <v>63</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>833</v>
+        <v>791</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>834</v>
+        <v>792</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>593</v>
+        <v>551</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -9999,19 +10261,19 @@
         <v>65</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>835</v>
+        <v>793</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>836</v>
+        <v>794</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>453</v>
+        <v>411</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>595</v>
+        <v>553</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>596</v>
+        <v>554</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -10025,22 +10287,22 @@
         <v>66</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>837</v>
+        <v>795</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>838</v>
+        <v>796</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>597</v>
+        <v>555</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>16</v>
       </c>
@@ -10051,22 +10313,22 @@
         <v>115</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>844</v>
+        <v>802</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>601</v>
+        <v>559</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>16</v>
       </c>
@@ -10074,25 +10336,25 @@
         <v>39</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>909</v>
+        <v>867</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>910</v>
+        <v>868</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>911</v>
+        <v>869</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>912</v>
+        <v>870</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>913</v>
+        <v>871</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -10100,22 +10362,22 @@
         <v>37</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>941</v>
+        <v>898</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>839</v>
+        <v>797</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>840</v>
+        <v>798</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>841</v>
+        <v>799</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>599</v>
+        <v>557</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>600</v>
+        <v>558</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="165" x14ac:dyDescent="0.25">
@@ -10126,25 +10388,25 @@
         <v>37</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>937</v>
+        <v>894</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>845</v>
+        <v>803</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>846</v>
+        <v>804</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>396</v>
+        <v>355</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>602</v>
+        <v>560</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -10155,22 +10417,22 @@
         <v>108</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>847</v>
+        <v>805</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>848</v>
+        <v>806</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>849</v>
+        <v>807</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -10181,22 +10443,22 @@
         <v>109</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>850</v>
+        <v>808</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>851</v>
+        <v>809</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>606</v>
+        <v>564</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -10207,22 +10469,22 @@
         <v>110</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>852</v>
+        <v>810</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>853</v>
+        <v>811</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>395</v>
+        <v>354</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>608</v>
+        <v>566</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -10233,19 +10495,19 @@
         <v>113</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>854</v>
+        <v>812</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>855</v>
+        <v>813</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>399</v>
+        <v>358</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>647</v>
+        <v>605</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="210" x14ac:dyDescent="0.25">
@@ -10259,19 +10521,19 @@
         <v>112</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>856</v>
+        <v>814</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>857</v>
+        <v>815</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>611</v>
+        <v>569</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>612</v>
+        <v>570</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="330" x14ac:dyDescent="0.25">
@@ -10285,22 +10547,22 @@
         <v>111</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>858</v>
+        <v>816</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>859</v>
+        <v>817</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>397</v>
+        <v>356</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>613</v>
+        <v>571</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -10311,19 +10573,19 @@
         <v>114</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>860</v>
+        <v>818</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>861</v>
+        <v>819</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>400</v>
+        <v>359</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>615</v>
+        <v>573</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>648</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -10408,9 +10670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10447,22 +10707,22 @@
         <v>145</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>874</v>
+        <v>832</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>875</v>
+        <v>833</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>876</v>
+        <v>834</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>877</v>
+        <v>835</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>878</v>
+        <v>836</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>879</v>
+        <v>837</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="120" x14ac:dyDescent="0.25">
@@ -10470,37 +10730,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>1690</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>81</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>942</v>
+        <v>899</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>943</v>
+        <v>900</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>944</v>
+        <v>901</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>945</v>
+        <v>902</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>946</v>
+        <v>903</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>947</v>
+        <v>904</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>948</v>
+        <v>905</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="120" x14ac:dyDescent="0.25">
@@ -10508,75 +10768,75 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>1691</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>82</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>949</v>
+        <v>906</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>950</v>
+        <v>907</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>951</v>
+        <v>908</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>952</v>
+        <v>909</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>953</v>
+        <v>910</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>954</v>
+        <v>911</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>955</v>
+        <v>912</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>1692</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>80</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>956</v>
+        <v>913</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>957</v>
+        <v>914</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>958</v>
+        <v>915</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>959</v>
+        <v>916</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>960</v>
+        <v>917</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>961</v>
+        <v>918</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>962</v>
+        <v>919</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="105" x14ac:dyDescent="0.25">
@@ -10584,37 +10844,37 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>83</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>963</v>
+        <v>920</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>964</v>
+        <v>921</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>965</v>
+        <v>922</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>966</v>
+        <v>923</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>967</v>
+        <v>924</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>968</v>
+        <v>925</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>969</v>
+        <v>926</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="105" x14ac:dyDescent="0.25">
@@ -10622,75 +10882,75 @@
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>150</v>
+        <v>1693</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>970</v>
+        <v>927</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>971</v>
+        <v>928</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>972</v>
+        <v>929</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>973</v>
+        <v>930</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>974</v>
+        <v>931</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>975</v>
+        <v>932</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>976</v>
+        <v>933</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>151</v>
+        <v>1694</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>76</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>977</v>
+        <v>934</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>978</v>
+        <v>935</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>979</v>
+        <v>936</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>980</v>
+        <v>937</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>981</v>
+        <v>938</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>982</v>
+        <v>939</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>983</v>
+        <v>940</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="105" x14ac:dyDescent="0.25">
@@ -10698,37 +10958,37 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>152</v>
+        <v>1695</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>79</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>984</v>
+        <v>941</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>985</v>
+        <v>942</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>986</v>
+        <v>943</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>987</v>
+        <v>944</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>988</v>
+        <v>945</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>989</v>
+        <v>946</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>990</v>
+        <v>947</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="90" x14ac:dyDescent="0.25">
@@ -10736,37 +10996,37 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>991</v>
+        <v>948</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>992</v>
+        <v>949</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>993</v>
+        <v>950</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>994</v>
+        <v>951</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>995</v>
+        <v>952</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>996</v>
+        <v>953</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>997</v>
+        <v>954</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="120" x14ac:dyDescent="0.25">
@@ -10774,37 +11034,37 @@
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>998</v>
+        <v>955</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>999</v>
+        <v>956</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>1000</v>
+        <v>957</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>1001</v>
+        <v>958</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>1002</v>
+        <v>959</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>1003</v>
+        <v>960</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>1004</v>
+        <v>961</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="90" x14ac:dyDescent="0.25">
@@ -10812,31 +11072,31 @@
         <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>1005</v>
+        <v>962</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>1006</v>
+        <v>963</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1007</v>
+        <v>964</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>1008</v>
+        <v>965</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>1009</v>
+        <v>966</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>1010</v>
+        <v>967</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>1011</v>
+        <v>968</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="105" x14ac:dyDescent="0.25">
@@ -10844,31 +11104,31 @@
         <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>87</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>1012</v>
+        <v>969</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>1013</v>
+        <v>970</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1014</v>
+        <v>971</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>1015</v>
+        <v>972</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>1016</v>
+        <v>973</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>1017</v>
+        <v>974</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>1018</v>
+        <v>975</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="90" x14ac:dyDescent="0.25">
@@ -10876,31 +11136,31 @@
         <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>1019</v>
+        <v>976</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>1020</v>
+        <v>977</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1021</v>
+        <v>978</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>1022</v>
+        <v>979</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>1023</v>
+        <v>980</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>1024</v>
+        <v>981</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>1025</v>
+        <v>982</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="120" x14ac:dyDescent="0.25">
@@ -10908,31 +11168,31 @@
         <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>100</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>1026</v>
+        <v>983</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>1027</v>
+        <v>984</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1028</v>
+        <v>985</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>1029</v>
+        <v>986</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>1030</v>
+        <v>987</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>1031</v>
+        <v>988</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>1032</v>
+        <v>989</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="105" x14ac:dyDescent="0.25">
@@ -10940,31 +11200,31 @@
         <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>101</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>1033</v>
+        <v>990</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>1034</v>
+        <v>991</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>1035</v>
+        <v>992</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>1036</v>
+        <v>993</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>1037</v>
+        <v>994</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>1038</v>
+        <v>995</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>1039</v>
+        <v>996</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="120" x14ac:dyDescent="0.25">
@@ -10972,31 +11232,31 @@
         <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>940</v>
+        <v>897</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>1040</v>
+        <v>997</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>1041</v>
+        <v>998</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>1042</v>
+        <v>999</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>1043</v>
+        <v>1000</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>1044</v>
+        <v>1001</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>1045</v>
+        <v>1002</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>1046</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="17" spans="4:14" ht="225" x14ac:dyDescent="0.25">
@@ -11004,31 +11264,31 @@
         <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>106</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>1047</v>
+        <v>1004</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>880</v>
+        <v>838</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>881</v>
+        <v>839</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>882</v>
+        <v>840</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>883</v>
+        <v>841</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>884</v>
+        <v>842</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>1048</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="18" spans="4:14" ht="105" x14ac:dyDescent="0.25">
@@ -11036,31 +11296,31 @@
         <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>107</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>1049</v>
+        <v>1006</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>1050</v>
+        <v>1007</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>1051</v>
+        <v>1008</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>1052</v>
+        <v>1009</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>1053</v>
+        <v>1010</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>1054</v>
+        <v>1011</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>1055</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="19" spans="4:14" ht="105" x14ac:dyDescent="0.25">
@@ -11068,31 +11328,31 @@
         <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>1056</v>
+        <v>1013</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>1057</v>
+        <v>1014</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>1058</v>
+        <v>1015</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>1059</v>
+        <v>1016</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>1060</v>
+        <v>1017</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>1061</v>
+        <v>1018</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>1062</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="20" spans="4:14" ht="105" x14ac:dyDescent="0.25">
@@ -11100,31 +11360,31 @@
         <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>1063</v>
+        <v>1020</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>1064</v>
+        <v>1021</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>1065</v>
+        <v>1022</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>1066</v>
+        <v>1023</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>1067</v>
+        <v>1024</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>1068</v>
+        <v>1025</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>1069</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="21" spans="4:14" ht="90" x14ac:dyDescent="0.25">
@@ -11132,31 +11392,31 @@
         <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>102</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>1070</v>
+        <v>1027</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>1071</v>
+        <v>1028</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>1072</v>
+        <v>1029</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>1073</v>
+        <v>1030</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>1074</v>
+        <v>1031</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>1075</v>
+        <v>1032</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>1076</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="22" spans="4:14" ht="105" x14ac:dyDescent="0.25">
@@ -11164,31 +11424,31 @@
         <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>103</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>1077</v>
+        <v>1034</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>1078</v>
+        <v>1035</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>1079</v>
+        <v>1036</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>1080</v>
+        <v>1037</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>1081</v>
+        <v>1038</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>1082</v>
+        <v>1039</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>1083</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="23" spans="4:14" ht="225" x14ac:dyDescent="0.25">
@@ -11196,31 +11456,31 @@
         <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>900</v>
+        <v>858</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>1084</v>
+        <v>1041</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>1085</v>
+        <v>1042</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>1086</v>
+        <v>1043</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>1087</v>
+        <v>1044</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>1088</v>
+        <v>1045</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>1089</v>
+        <v>1046</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>1090</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="24" spans="4:14" ht="165" x14ac:dyDescent="0.25">
@@ -11228,31 +11488,31 @@
         <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>902</v>
+        <v>860</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>908</v>
+        <v>866</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>1612</v>
+        <v>1565</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>1613</v>
+        <v>1566</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>1614</v>
+        <v>1567</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>1615</v>
+        <v>1568</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>1616</v>
+        <v>1569</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>1091</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="25" spans="4:14" ht="180" x14ac:dyDescent="0.25">
@@ -11260,31 +11520,31 @@
         <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>1092</v>
+        <v>1049</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>1093</v>
+        <v>1050</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>1094</v>
+        <v>1051</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>1095</v>
+        <v>1052</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>1096</v>
+        <v>1053</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>1097</v>
+        <v>1054</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>1098</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="26" spans="4:14" ht="165" x14ac:dyDescent="0.25">
@@ -11292,31 +11552,31 @@
         <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>1099</v>
+        <v>1056</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>1100</v>
+        <v>1057</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>1101</v>
+        <v>1058</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>1102</v>
+        <v>1059</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>1103</v>
+        <v>1060</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>1104</v>
+        <v>1061</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>1105</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="27" spans="4:14" ht="120" x14ac:dyDescent="0.25">
@@ -11324,31 +11584,31 @@
         <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>68</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>1106</v>
+        <v>1063</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>1107</v>
+        <v>1064</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>1108</v>
+        <v>1065</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>1109</v>
+        <v>1066</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>1110</v>
+        <v>1067</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>1111</v>
+        <v>1068</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>1112</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="28" spans="4:14" ht="120" x14ac:dyDescent="0.25">
@@ -11356,31 +11616,31 @@
         <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>1113</v>
+        <v>1070</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>1114</v>
+        <v>1071</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>1115</v>
+        <v>1072</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>1116</v>
+        <v>1073</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>1117</v>
+        <v>1074</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>1118</v>
+        <v>1075</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>1119</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="29" spans="4:14" ht="150" x14ac:dyDescent="0.25">
@@ -11388,51 +11648,51 @@
         <v>71</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>1120</v>
+        <v>1077</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>1121</v>
+        <v>1078</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>1122</v>
+        <v>1079</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>1123</v>
+        <v>1080</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>1124</v>
+        <v>1081</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>1125</v>
+        <v>1082</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>1126</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="30" spans="4:14" ht="120" x14ac:dyDescent="0.25">
       <c r="G30" s="2" t="s">
-        <v>862</v>
+        <v>820</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>1127</v>
+        <v>1084</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>1128</v>
+        <v>1085</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>1129</v>
+        <v>1086</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>1130</v>
+        <v>1087</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>1131</v>
+        <v>1088</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>1132</v>
+        <v>1089</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>1133</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="31" spans="4:14" ht="120" x14ac:dyDescent="0.25">
@@ -11440,51 +11700,51 @@
         <v>72</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>1134</v>
+        <v>1091</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>1135</v>
+        <v>1092</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>1136</v>
+        <v>1093</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>1137</v>
+        <v>1094</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>1138</v>
+        <v>1095</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>1139</v>
+        <v>1096</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>1140</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="32" spans="4:14" ht="315" x14ac:dyDescent="0.25">
       <c r="G32" s="2" t="s">
-        <v>923</v>
+        <v>880</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>924</v>
+        <v>881</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>1617</v>
+        <v>1570</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>1618</v>
+        <v>1571</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>1619</v>
+        <v>1572</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>1620</v>
+        <v>1573</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>1621</v>
+        <v>1574</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>1141</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="33" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -11492,25 +11752,25 @@
         <v>73</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>1142</v>
+        <v>1099</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>1143</v>
+        <v>1100</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>1144</v>
+        <v>1101</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>1145</v>
+        <v>1102</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>1146</v>
+        <v>1103</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>1147</v>
+        <v>1104</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>1148</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="34" spans="7:14" ht="120" x14ac:dyDescent="0.25">
@@ -11518,25 +11778,25 @@
         <v>74</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>1149</v>
+        <v>1106</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>1150</v>
+        <v>1107</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>1151</v>
+        <v>1108</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>1152</v>
+        <v>1109</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>1153</v>
+        <v>1110</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>1154</v>
+        <v>1111</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>1155</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="35" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -11544,25 +11804,25 @@
         <v>75</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>1156</v>
+        <v>1113</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>1157</v>
+        <v>1114</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>1158</v>
+        <v>1115</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>1159</v>
+        <v>1116</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>1160</v>
+        <v>1117</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>1161</v>
+        <v>1118</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>1162</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="36" spans="7:14" ht="120" x14ac:dyDescent="0.25">
@@ -11570,103 +11830,103 @@
         <v>115</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>1163</v>
+        <v>1120</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>1164</v>
+        <v>1121</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>1165</v>
+        <v>1122</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>1166</v>
+        <v>1123</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>1167</v>
+        <v>1124</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>1168</v>
+        <v>1125</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>1169</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="37" spans="7:14" ht="180" x14ac:dyDescent="0.25">
       <c r="G37" s="2" t="s">
-        <v>909</v>
+        <v>867</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>915</v>
+        <v>873</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>1626</v>
+        <v>1579</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>1631</v>
+        <v>1584</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>1630</v>
+        <v>1583</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>1623</v>
+        <v>1576</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>1622</v>
+        <v>1575</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>1170</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="38" spans="7:14" ht="105" x14ac:dyDescent="0.25">
       <c r="G38" s="2" t="s">
-        <v>941</v>
+        <v>898</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>1171</v>
+        <v>1128</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>1172</v>
+        <v>1129</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>1173</v>
+        <v>1130</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>1174</v>
+        <v>1131</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>1175</v>
+        <v>1132</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>1176</v>
+        <v>1133</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>1177</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="39" spans="7:14" ht="105" x14ac:dyDescent="0.25">
       <c r="G39" s="2" t="s">
-        <v>937</v>
+        <v>894</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>1178</v>
+        <v>1135</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>1179</v>
+        <v>1136</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>1180</v>
+        <v>1137</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>1181</v>
+        <v>1138</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>1182</v>
+        <v>1139</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>1183</v>
+        <v>1140</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>1184</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="40" spans="7:14" ht="90" x14ac:dyDescent="0.25">
@@ -11674,25 +11934,25 @@
         <v>108</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>1185</v>
+        <v>1142</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>1186</v>
+        <v>1143</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>1187</v>
+        <v>1144</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>1188</v>
+        <v>1145</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>1189</v>
+        <v>1146</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>1190</v>
+        <v>1147</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>1191</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="41" spans="7:14" ht="90" x14ac:dyDescent="0.25">
@@ -11700,25 +11960,25 @@
         <v>109</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>1192</v>
+        <v>1149</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>1193</v>
+        <v>1150</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>1194</v>
+        <v>1151</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>1195</v>
+        <v>1152</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>1196</v>
+        <v>1153</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>1197</v>
+        <v>1154</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>1198</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="42" spans="7:14" ht="90" x14ac:dyDescent="0.25">
@@ -11726,25 +11986,25 @@
         <v>110</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>1199</v>
+        <v>1156</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>1200</v>
+        <v>1157</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>1201</v>
+        <v>1158</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>1202</v>
+        <v>1159</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>1203</v>
+        <v>1160</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>1204</v>
+        <v>1161</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>1205</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="43" spans="7:14" ht="90" x14ac:dyDescent="0.25">
@@ -11752,25 +12012,25 @@
         <v>113</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>1206</v>
+        <v>1163</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>1207</v>
+        <v>1164</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>1208</v>
+        <v>1165</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>1209</v>
+        <v>1166</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>1210</v>
+        <v>1167</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>1211</v>
+        <v>1168</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>1212</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="44" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -11778,25 +12038,25 @@
         <v>112</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>1213</v>
+        <v>1170</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>1214</v>
+        <v>1171</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>1215</v>
+        <v>1172</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>1216</v>
+        <v>1173</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>1217</v>
+        <v>1174</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>1218</v>
+        <v>1175</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>1219</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="45" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -11804,25 +12064,25 @@
         <v>111</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>1220</v>
+        <v>1177</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>1221</v>
+        <v>1178</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>1222</v>
+        <v>1179</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>1223</v>
+        <v>1180</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>1224</v>
+        <v>1181</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>1225</v>
+        <v>1182</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>1226</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="46" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -11830,25 +12090,25 @@
         <v>114</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>1227</v>
+        <v>1184</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>1228</v>
+        <v>1185</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>1229</v>
+        <v>1186</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>1230</v>
+        <v>1187</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>1231</v>
+        <v>1188</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>1232</v>
+        <v>1189</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>1233</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="47" spans="7:14" ht="135" x14ac:dyDescent="0.25">
@@ -11856,25 +12116,25 @@
         <v>59</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>1234</v>
+        <v>1191</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>1235</v>
+        <v>1192</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>1236</v>
+        <v>1193</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>1237</v>
+        <v>1194</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>1238</v>
+        <v>1195</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>1239</v>
+        <v>1196</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>1240</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="48" spans="7:14" ht="225" x14ac:dyDescent="0.25">
@@ -11882,25 +12142,25 @@
         <v>62</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>1241</v>
+        <v>1198</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>890</v>
+        <v>848</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>891</v>
+        <v>849</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>892</v>
+        <v>850</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>893</v>
+        <v>851</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>894</v>
+        <v>852</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>1242</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="49" spans="7:14" ht="240" x14ac:dyDescent="0.25">
@@ -11908,25 +12168,25 @@
         <v>61</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>1243</v>
+        <v>1200</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>895</v>
+        <v>853</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>896</v>
+        <v>854</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>897</v>
+        <v>855</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>898</v>
+        <v>856</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>899</v>
+        <v>857</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>1244</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="50" spans="7:14" ht="120" x14ac:dyDescent="0.25">
@@ -11934,25 +12194,25 @@
         <v>60</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>1245</v>
+        <v>1202</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>1246</v>
+        <v>1203</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>1247</v>
+        <v>1204</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>1248</v>
+        <v>1205</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>1249</v>
+        <v>1206</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>1250</v>
+        <v>1207</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>1251</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="51" spans="7:14" ht="120" x14ac:dyDescent="0.25">
@@ -11960,25 +12220,25 @@
         <v>51</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>1252</v>
+        <v>1209</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>1253</v>
+        <v>1210</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>1254</v>
+        <v>1211</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>1255</v>
+        <v>1212</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>1256</v>
+        <v>1213</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>1257</v>
+        <v>1214</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>1258</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="52" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -11986,25 +12246,25 @@
         <v>64</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>1259</v>
+        <v>1216</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>1260</v>
+        <v>1217</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>1261</v>
+        <v>1218</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>1262</v>
+        <v>1219</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>1263</v>
+        <v>1220</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>1264</v>
+        <v>1221</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>1265</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="53" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -12012,25 +12272,25 @@
         <v>63</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>1266</v>
+        <v>1223</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>1267</v>
+        <v>1224</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>1268</v>
+        <v>1225</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>1269</v>
+        <v>1226</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>1270</v>
+        <v>1227</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>1271</v>
+        <v>1228</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>1272</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="54" spans="7:14" ht="90" x14ac:dyDescent="0.25">
@@ -12038,25 +12298,25 @@
         <v>65</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>1273</v>
+        <v>1230</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>1274</v>
+        <v>1231</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>1275</v>
+        <v>1232</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>1276</v>
+        <v>1233</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>1277</v>
+        <v>1234</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>1278</v>
+        <v>1235</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>1279</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="55" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -12064,25 +12324,25 @@
         <v>66</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>1280</v>
+        <v>1237</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>1281</v>
+        <v>1238</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>1282</v>
+        <v>1239</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>1283</v>
+        <v>1240</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>1284</v>
+        <v>1241</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>1285</v>
+        <v>1242</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>1286</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="56" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -12090,25 +12350,25 @@
         <v>128</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>1287</v>
+        <v>1244</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>1288</v>
+        <v>1245</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>1289</v>
+        <v>1246</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>1290</v>
+        <v>1247</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>1291</v>
+        <v>1248</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>1292</v>
+        <v>1249</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>1293</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="57" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -12116,25 +12376,25 @@
         <v>126</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>1294</v>
+        <v>1251</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>1295</v>
+        <v>1252</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>1296</v>
+        <v>1253</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>1297</v>
+        <v>1254</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>1298</v>
+        <v>1255</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>1299</v>
+        <v>1256</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>1300</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="58" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -12142,25 +12402,25 @@
         <v>127</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>1301</v>
+        <v>1258</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>1302</v>
+        <v>1259</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>1303</v>
+        <v>1260</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>1304</v>
+        <v>1261</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>1305</v>
+        <v>1262</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>1306</v>
+        <v>1263</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>1307</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="59" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -12168,25 +12428,25 @@
         <v>132</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>1308</v>
+        <v>1265</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>1309</v>
+        <v>1266</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>1310</v>
+        <v>1267</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>1311</v>
+        <v>1268</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>1312</v>
+        <v>1269</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>1313</v>
+        <v>1270</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>1314</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="60" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -12194,25 +12454,25 @@
         <v>130</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>1315</v>
+        <v>1272</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>1316</v>
+        <v>1273</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>1317</v>
+        <v>1274</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>1318</v>
+        <v>1275</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>1319</v>
+        <v>1276</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>1320</v>
+        <v>1277</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>1321</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="61" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -12220,25 +12480,25 @@
         <v>129</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>1322</v>
+        <v>1279</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>1323</v>
+        <v>1280</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>1324</v>
+        <v>1281</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>1325</v>
+        <v>1282</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>1326</v>
+        <v>1283</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>1327</v>
+        <v>1284</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>1328</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="62" spans="7:14" ht="90" x14ac:dyDescent="0.25">
@@ -12246,25 +12506,25 @@
         <v>131</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>1329</v>
+        <v>1286</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>1330</v>
+        <v>1287</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>1331</v>
+        <v>1288</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>1332</v>
+        <v>1289</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>1333</v>
+        <v>1290</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>1334</v>
+        <v>1291</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>1335</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="63" spans="7:14" ht="90" x14ac:dyDescent="0.25">
@@ -12272,25 +12532,25 @@
         <v>133</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>1336</v>
+        <v>1293</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>1337</v>
+        <v>1294</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>1338</v>
+        <v>1295</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>1339</v>
+        <v>1296</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>1340</v>
+        <v>1297</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>1341</v>
+        <v>1298</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>1342</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="64" spans="7:14" ht="90" x14ac:dyDescent="0.25">
@@ -12298,25 +12558,25 @@
         <v>134</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>1343</v>
+        <v>1300</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>1344</v>
+        <v>1301</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>1345</v>
+        <v>1302</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>1346</v>
+        <v>1303</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>1347</v>
+        <v>1304</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>1348</v>
+        <v>1305</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>1349</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="65" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -12324,51 +12584,51 @@
         <v>135</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>1350</v>
+        <v>1696</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>1351</v>
+        <v>1307</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>1352</v>
+        <v>1308</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>1353</v>
+        <v>1309</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>1354</v>
+        <v>1310</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>1355</v>
+        <v>1311</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>1356</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="66" spans="7:14" ht="90" x14ac:dyDescent="0.25">
       <c r="G66" s="2" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>1357</v>
+        <v>1313</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>1358</v>
+        <v>1314</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>1359</v>
+        <v>1315</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>1360</v>
+        <v>1316</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>1361</v>
+        <v>1317</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>1362</v>
+        <v>1318</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>1363</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="67" spans="7:14" ht="120" x14ac:dyDescent="0.25">
@@ -12376,25 +12636,25 @@
         <v>57</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>1364</v>
+        <v>1320</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>1365</v>
+        <v>1321</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>1366</v>
+        <v>1322</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>1367</v>
+        <v>1323</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>1368</v>
+        <v>1324</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>1369</v>
+        <v>1325</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>1349</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="68" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -12402,25 +12662,25 @@
         <v>58</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>1370</v>
+        <v>1326</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>1371</v>
+        <v>1327</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>1372</v>
+        <v>1328</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>1373</v>
+        <v>1329</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>1374</v>
+        <v>1330</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>1375</v>
+        <v>1331</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>1376</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="69" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -12428,25 +12688,25 @@
         <v>56</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>1377</v>
+        <v>1333</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>1378</v>
+        <v>1334</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>1379</v>
+        <v>1335</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>1380</v>
+        <v>1336</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>1381</v>
+        <v>1337</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>1382</v>
+        <v>1338</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>1383</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="70" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -12454,25 +12714,25 @@
         <v>55</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>1384</v>
+        <v>1340</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>1385</v>
+        <v>1341</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>1386</v>
+        <v>1342</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>1387</v>
+        <v>1343</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>1388</v>
+        <v>1344</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>1389</v>
+        <v>1345</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>1390</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="71" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -12480,25 +12740,25 @@
         <v>48</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>1391</v>
+        <v>1347</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>1392</v>
+        <v>1348</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>1393</v>
+        <v>1349</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>1394</v>
+        <v>1350</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>1395</v>
+        <v>1351</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>1396</v>
+        <v>1352</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>1397</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="72" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -12506,25 +12766,25 @@
         <v>47</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>1398</v>
+        <v>1354</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>1399</v>
+        <v>1355</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>1400</v>
+        <v>1356</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>1401</v>
+        <v>1357</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>1402</v>
+        <v>1358</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>1403</v>
+        <v>1359</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>1404</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="73" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -12532,25 +12792,25 @@
         <v>49</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>1405</v>
+        <v>1361</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>1406</v>
+        <v>1362</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>1407</v>
+        <v>1363</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>1408</v>
+        <v>1364</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>1409</v>
+        <v>1365</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>1410</v>
+        <v>1366</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>1411</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="74" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -12558,25 +12818,25 @@
         <v>50</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>1412</v>
+        <v>1368</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>1413</v>
+        <v>1369</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>1414</v>
+        <v>1370</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>1415</v>
+        <v>1371</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>1416</v>
+        <v>1372</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>1417</v>
+        <v>1373</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>1418</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="75" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -12584,25 +12844,25 @@
         <v>46</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>1419</v>
+        <v>1375</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>1420</v>
+        <v>1376</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>1421</v>
+        <v>1377</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>1422</v>
+        <v>1378</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>1423</v>
+        <v>1379</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>1424</v>
+        <v>1380</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>1425</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="76" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -12610,25 +12870,25 @@
         <v>53</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>1426</v>
+        <v>1382</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>1427</v>
+        <v>1383</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>1428</v>
+        <v>1384</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>1429</v>
+        <v>1385</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>1430</v>
+        <v>1386</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>1431</v>
+        <v>1387</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>1432</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="77" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -12636,25 +12896,25 @@
         <v>54</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>1433</v>
+        <v>1389</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>1434</v>
+        <v>1390</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>1435</v>
+        <v>1391</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>1436</v>
+        <v>1392</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>1437</v>
+        <v>1393</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>1438</v>
+        <v>1394</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>1439</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="78" spans="7:14" ht="210" x14ac:dyDescent="0.25">
@@ -12662,51 +12922,51 @@
         <v>52</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>1440</v>
+        <v>1396</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>885</v>
+        <v>843</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>886</v>
+        <v>844</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>887</v>
+        <v>845</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>888</v>
+        <v>846</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>889</v>
+        <v>847</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>1441</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="79" spans="7:14" ht="180" x14ac:dyDescent="0.25">
       <c r="G79" s="2" t="s">
-        <v>916</v>
+        <v>874</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>922</v>
+        <v>1697</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>1627</v>
+        <v>1580</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>1628</v>
+        <v>1581</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>1629</v>
+        <v>1582</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>1624</v>
+        <v>1577</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>1625</v>
+        <v>1578</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>1442</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="80" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -12714,25 +12974,25 @@
         <v>119</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>1443</v>
+        <v>1698</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>1444</v>
+        <v>1399</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>1445</v>
+        <v>1400</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>1446</v>
+        <v>1401</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>1447</v>
+        <v>1402</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>1448</v>
+        <v>1403</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>1449</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="81" spans="7:14" ht="90" x14ac:dyDescent="0.25">
@@ -12740,25 +13000,25 @@
         <v>116</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>1450</v>
+        <v>1405</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>1451</v>
+        <v>1406</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>1452</v>
+        <v>1407</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>1453</v>
+        <v>1408</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>1454</v>
+        <v>1409</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>1455</v>
+        <v>1410</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>1456</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="82" spans="7:14" ht="90" x14ac:dyDescent="0.25">
@@ -12766,25 +13026,25 @@
         <v>117</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>1457</v>
+        <v>1412</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>1458</v>
+        <v>1413</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>1459</v>
+        <v>1414</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>1460</v>
+        <v>1415</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>1461</v>
+        <v>1416</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>1462</v>
+        <v>1417</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>1463</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="83" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -12792,51 +13052,51 @@
         <v>118</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>1464</v>
+        <v>1699</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>1465</v>
+        <v>1419</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>1466</v>
+        <v>1420</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>1467</v>
+        <v>1421</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>1468</v>
+        <v>1422</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>1469</v>
+        <v>1423</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>1470</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="84" spans="7:14" ht="240" x14ac:dyDescent="0.25">
       <c r="G84" s="2" t="s">
-        <v>930</v>
+        <v>887</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>936</v>
+        <v>893</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>1632</v>
+        <v>1585</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>1633</v>
+        <v>1586</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>1634</v>
+        <v>1587</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>1635</v>
+        <v>1588</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>1636</v>
+        <v>1589</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>1471</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="85" spans="7:14" ht="90" x14ac:dyDescent="0.25">
@@ -12844,25 +13104,25 @@
         <v>121</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>1472</v>
+        <v>1426</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>1473</v>
+        <v>1427</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>1474</v>
+        <v>1428</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>1475</v>
+        <v>1429</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>1476</v>
+        <v>1430</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>1477</v>
+        <v>1431</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>1478</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="86" spans="7:14" ht="90" x14ac:dyDescent="0.25">
@@ -12870,25 +13130,25 @@
         <v>120</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>1479</v>
+        <v>1433</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>1480</v>
+        <v>1434</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>1481</v>
+        <v>1435</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>1482</v>
+        <v>1436</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>1483</v>
+        <v>1437</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>1484</v>
+        <v>1438</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>1485</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="87" spans="7:14" ht="90" x14ac:dyDescent="0.25">
@@ -12896,25 +13156,25 @@
         <v>122</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>1486</v>
+        <v>1440</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>1487</v>
+        <v>1441</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>1488</v>
+        <v>1442</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>1489</v>
+        <v>1443</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>1490</v>
+        <v>1444</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>1491</v>
+        <v>1445</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>1492</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="88" spans="7:14" ht="90" x14ac:dyDescent="0.25">
@@ -12922,25 +13182,25 @@
         <v>123</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>1493</v>
+        <v>1447</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>1494</v>
+        <v>1448</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>1495</v>
+        <v>1449</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>1496</v>
+        <v>1450</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>1497</v>
+        <v>1451</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>1498</v>
+        <v>1452</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>1499</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="89" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -12948,25 +13208,25 @@
         <v>124</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>1500</v>
+        <v>1454</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>1501</v>
+        <v>1455</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>1502</v>
+        <v>1456</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>1503</v>
+        <v>1457</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>1504</v>
+        <v>1458</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>1505</v>
+        <v>1459</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>1506</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="90" spans="7:14" ht="90" x14ac:dyDescent="0.25">
@@ -12974,51 +13234,51 @@
         <v>125</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>1507</v>
+        <v>1461</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>1508</v>
+        <v>1462</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>1509</v>
+        <v>1463</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>1510</v>
+        <v>1464</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>1511</v>
+        <v>1465</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>1512</v>
+        <v>1466</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>1513</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="91" spans="7:14" ht="90" x14ac:dyDescent="0.25">
       <c r="G91" s="2" t="s">
-        <v>939</v>
+        <v>896</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>1514</v>
+        <v>1468</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>1515</v>
+        <v>1469</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>1516</v>
+        <v>1470</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>1517</v>
+        <v>1471</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>1518</v>
+        <v>1472</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>1519</v>
+        <v>1473</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>1520</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="92" spans="7:14" ht="120" x14ac:dyDescent="0.25">
@@ -13026,25 +13286,25 @@
         <v>94</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>1521</v>
+        <v>1475</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>1522</v>
+        <v>1476</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>1523</v>
+        <v>1477</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>1524</v>
+        <v>1478</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>1525</v>
+        <v>1479</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>1526</v>
+        <v>1480</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>1527</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="93" spans="7:14" ht="90" x14ac:dyDescent="0.25">
@@ -13052,51 +13312,51 @@
         <v>95</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>1528</v>
+        <v>1482</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>1529</v>
+        <v>1483</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>1530</v>
+        <v>1484</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>1531</v>
+        <v>1485</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>1532</v>
+        <v>1486</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>1533</v>
+        <v>1487</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>1534</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="94" spans="7:14" ht="90" x14ac:dyDescent="0.25">
       <c r="G94" s="2" t="s">
-        <v>938</v>
+        <v>895</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>1535</v>
+        <v>1489</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>1536</v>
+        <v>1490</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>1537</v>
+        <v>1491</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>1538</v>
+        <v>1492</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>1539</v>
+        <v>1493</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>1540</v>
+        <v>1494</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>1541</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="95" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -13104,25 +13364,25 @@
         <v>93</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>1542</v>
+        <v>1496</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>1543</v>
+        <v>1497</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>1544</v>
+        <v>1498</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>1545</v>
+        <v>1499</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>1546</v>
+        <v>1500</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>1547</v>
+        <v>1501</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>1548</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="96" spans="7:14" ht="90" x14ac:dyDescent="0.25">
@@ -13130,25 +13390,25 @@
         <v>92</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>1549</v>
+        <v>1503</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>1550</v>
+        <v>1504</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>1551</v>
+        <v>1505</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>1552</v>
+        <v>1506</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>1553</v>
+        <v>1507</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>1554</v>
+        <v>1508</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>1555</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="97" spans="7:14" ht="90" x14ac:dyDescent="0.25">
@@ -13156,25 +13416,25 @@
         <v>91</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>1556</v>
+        <v>1510</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>1557</v>
+        <v>1511</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>1558</v>
+        <v>1512</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>1559</v>
+        <v>1513</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>1560</v>
+        <v>1514</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>1561</v>
+        <v>1515</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>1562</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="98" spans="7:14" ht="90" x14ac:dyDescent="0.25">
@@ -13182,25 +13442,25 @@
         <v>88</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>1563</v>
+        <v>1517</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>1564</v>
+        <v>1518</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>1565</v>
+        <v>1519</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>1566</v>
+        <v>1520</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>1567</v>
+        <v>1521</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>1568</v>
+        <v>1522</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>1569</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="99" spans="7:14" ht="90" x14ac:dyDescent="0.25">
@@ -13208,25 +13468,25 @@
         <v>89</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>1570</v>
+        <v>1524</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>1571</v>
+        <v>1525</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>1572</v>
+        <v>1526</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>1573</v>
+        <v>1527</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>1574</v>
+        <v>1528</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>1575</v>
+        <v>1529</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>1576</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="100" spans="7:14" ht="90" x14ac:dyDescent="0.25">
@@ -13234,25 +13494,25 @@
         <v>90</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>1577</v>
+        <v>1700</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>1578</v>
+        <v>1531</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>1579</v>
+        <v>1532</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>1580</v>
+        <v>1533</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>1581</v>
+        <v>1534</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>1582</v>
+        <v>1535</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>1583</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="101" spans="7:14" ht="90" x14ac:dyDescent="0.25">
@@ -13260,25 +13520,25 @@
         <v>96</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>1584</v>
+        <v>1537</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>1585</v>
+        <v>1538</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>1586</v>
+        <v>1539</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>1587</v>
+        <v>1540</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>1588</v>
+        <v>1541</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>1589</v>
+        <v>1542</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>1590</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="102" spans="7:14" ht="120" x14ac:dyDescent="0.25">
@@ -13286,25 +13546,25 @@
         <v>99</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>1591</v>
+        <v>1544</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>1592</v>
+        <v>1545</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>1593</v>
+        <v>1546</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>1594</v>
+        <v>1547</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>1595</v>
+        <v>1548</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>1596</v>
+        <v>1549</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>1597</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="103" spans="7:14" ht="90" x14ac:dyDescent="0.25">
@@ -13312,25 +13572,25 @@
         <v>97</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>1598</v>
+        <v>1551</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>1599</v>
+        <v>1552</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>1600</v>
+        <v>1553</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>1601</v>
+        <v>1554</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>1602</v>
+        <v>1555</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>1603</v>
+        <v>1556</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>1604</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="104" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -13338,25 +13598,25 @@
         <v>98</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>1605</v>
+        <v>1558</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>1606</v>
+        <v>1559</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>1607</v>
+        <v>1560</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>1608</v>
+        <v>1561</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>1609</v>
+        <v>1562</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>1610</v>
+        <v>1563</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>1611</v>
+        <v>1564</v>
       </c>
     </row>
   </sheetData>
@@ -13389,22 +13649,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -13412,22 +13672,22 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -13435,22 +13695,22 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -13458,22 +13718,22 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E4" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -13481,22 +13741,22 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -13504,22 +13764,22 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -13527,22 +13787,22 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -13550,22 +13810,22 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G8" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -13573,22 +13833,22 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D9" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F9" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -13596,22 +13856,22 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G10" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -13619,22 +13879,22 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E11" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F11" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G11" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -13642,22 +13902,22 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D12" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E12" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F12" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G12" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -13665,22 +13925,22 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C13" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D13" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E13" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F13" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G13" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -13688,22 +13948,22 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D14" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E14" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F14" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G14" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -13711,22 +13971,22 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D15" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E15" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F15" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G15" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -13734,22 +13994,22 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C16" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D16" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E16" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F16" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G16" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -13757,22 +14017,22 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D17" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E17" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F17" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G17" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -13780,22 +14040,22 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D18" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E18" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G18" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -13803,22 +14063,22 @@
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D19" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E19" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G19" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -13826,22 +14086,22 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C20" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D20" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E20" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F20" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G20" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -13849,22 +14109,22 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C21" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D21" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E21" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F21" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G21" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -13872,22 +14132,22 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C22" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E22" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F22" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -13895,22 +14155,22 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C23" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E23" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F23" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G23" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -13918,22 +14178,22 @@
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D24" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E24" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F24" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -13941,22 +14201,22 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D25" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E25" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F25" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G25" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -13964,22 +14224,22 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C26" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D26" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E26" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F26" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G26" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -13987,22 +14247,22 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C27" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D27" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E27" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G27" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -14010,22 +14270,22 @@
         <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C28" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D28" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E28" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F28" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G28" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -14038,11 +14298,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14053,461 +14311,728 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>321</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>323</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>350</v>
+        <v>320</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>1645</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>304</v>
+        <v>1646</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>1660</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>305</v>
+        <v>1676</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>1593</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>346</v>
+        <v>1594</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>1662</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>306</v>
+        <v>1679</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>328</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>1626</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>308</v>
+        <v>1627</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>330</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>332</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>371</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>372</v>
+        <v>279</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>290</v>
+        <v>1658</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>311</v>
+        <v>1672</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>291</v>
+        <v>1661</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>312</v>
+        <v>1678</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>1668</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>375</v>
+        <v>1669</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>379</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>280</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>378</v>
+        <v>301</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>322</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>355</v>
+        <v>281</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>351</v>
+        <v>1665</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>356</v>
+        <v>1666</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>388</v>
+        <v>1590</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>389</v>
+        <v>1591</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>390</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>292</v>
+        <v>1701</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>313</v>
+        <v>1702</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>335</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>380</v>
+        <v>282</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>381</v>
+        <v>303</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>382</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>362</v>
+        <v>283</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>363</v>
+        <v>304</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>364</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>458</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>459</v>
+        <v>335</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>386</v>
+        <v>284</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>457</v>
+        <v>305</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>383</v>
+        <v>1608</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>384</v>
+        <v>1610</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>385</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>314</v>
+        <v>1611</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>336</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>343</v>
+        <v>1609</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>344</v>
+        <v>1611</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>450</v>
+        <v>1606</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>451</v>
+        <v>1607</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>452</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>294</v>
+        <v>1671</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>315</v>
+        <v>1681</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>393</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>296</v>
+        <v>1648</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>317</v>
+        <v>1650</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>339</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>352</v>
+        <v>286</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>354</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>370</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>341</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>299</v>
+        <v>416</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>320</v>
+        <v>417</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>342</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>348</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>346</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>287</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>314</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>409</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>327</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>288</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>351</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>289</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>290</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>291</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>331</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>322</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>333</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>292</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>293</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>1605</v>
       </c>
     </row>
   </sheetData>

--- a/app/source_data/Maturity_Assessment_Data.xlsx
+++ b/app/source_data/Maturity_Assessment_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\maturity-assessment-2\app\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1434B1BF-DE0E-4E8D-AE39-4D8A2F7EEE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521374AA-4467-4945-A125-97A0F2B4C51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="735" windowWidth="42600" windowHeight="13050" tabRatio="822" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="1305" windowWidth="25995" windowHeight="13050" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enhanced Framework" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Acronyms" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Dimension Theme Topic Descrip'!$J$1:$J$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Dimension Theme Topic Descrip'!$J$1:$J$106</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="1704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="1730">
   <si>
     <t>Dimension</t>
   </si>
@@ -6873,6 +6873,114 @@
   </si>
   <si>
     <t>All technologies used to create, process, store, transmit, and retrieve digital information</t>
+  </si>
+  <si>
+    <t>Risk monitoring and trending analysis</t>
+  </si>
+  <si>
+    <t>Structured analysis of time‑series indicators (incidents, losses, KRIs, capacity headroom, supplier findings) to detect deterioration or improvements, using thresholds, run charts and statistical tests to guide action.</t>
+  </si>
+  <si>
+    <t>• Backwards‑looking MI without trend context; slow reactions
+• Volatility mistaken for trend; false alarms or complacency
+• Findings not linked to ownership, actions or outcomes</t>
+  </si>
+  <si>
+    <t>• Earlier recognition of emerging problems; fewer severe incidents
+• Noise reduced through statistical methods; better focus
+• Clear accountability and evidence of improvement</t>
+  </si>
+  <si>
+    <t>• Monthly trend pack with standard charts and commentary
+• Ownership and action fields; simple thresholds
+• Manual reconciliation with incident and change calendars</t>
+  </si>
+  <si>
+    <t>• Automated trend detection (CUSUM, EWMA); seasonality adjustments
+• Correlation with change/events; service/vendor drill‑downs
+• Benefits realisation tracked against actions/funding</t>
+  </si>
+  <si>
+    <t>• Trend dashboards with methods documented; alert history and outcomes
+• Action logs with effect on trends; reduced false alarms
+• Governance minutes referencing trend analyses</t>
+  </si>
+  <si>
+    <t>ISO 22301 performance/measurement; BCBS PSMOR (metrics &amp; monitoring); FCA PS21/3 (Board MI)</t>
+  </si>
+  <si>
+    <t>Threshold breach escalation playbooks</t>
+  </si>
+  <si>
+    <t>Pre‑agreed responses when KRIs or tolerance headroom cross thresholds: who is paged, what analysis is done, decision options (halt change, add capacity, customer comms), and when to declare an incident.</t>
+  </si>
+  <si>
+    <t>• Breach emails ignored; unclear ownership; slow or wrong responses
+• Repeated breaches with no root‑cause or structural fix
+• Regulators challenge why tolerances/KRIs exist if breaches not acted on</t>
+  </si>
+  <si>
+    <t>• Faster, consistent actions reduce customer harm and breach duration
+• Clear audit trail from breach to decision and outcome
+• Learning loop strengthens thresholds and controls</t>
+  </si>
+  <si>
+    <t>• Runbooks per KRI/tolerance with roles, time targets and decision trees
+• Paging lists and comms templates; manual evidence capture
+• Periodic simulations/table‑tops of breach scenarios</t>
+  </si>
+  <si>
+    <t>• Automated trigger→runbook execution via ChatOps/ITSM; guardrails
+• Integrated root‑cause prompts and structural fix catalogues
+• MI on time‑to‑action, recurrence and effect on outcomes</t>
+  </si>
+  <si>
+    <t>• Breach logs linked to runbooks and decisions
+• Evidence of structural fixes, not just temporary mitigations
+• Improved breach metrics over time with governance reviews</t>
+  </si>
+  <si>
+    <t>FCA PS21/3 (tolerances &amp; MI), ISO 22301 (response &amp; performance), BCBS PSMOR (risk response), DORA (monitoring/reporting)</t>
+  </si>
+  <si>
+    <t>No consistent SLOs or monitoring for Risk monitoring and trending analysis; outages discovered by users; noisy alerts. 
+Example: On-call lacks actionable alerts.</t>
+  </si>
+  <si>
+    <t>Dashboards exist for Risk monitoring and trending analysis; SLOs drafted but not enforced; triage manual; follow-up inconsistent. 
+Example: No error-budget policy.</t>
+  </si>
+  <si>
+    <t>Analysts follow a trend method: calculate moving averages/seasonality, explain drivers, reference incidents/controls/changes, and propose actions with owners/dates; adverse trends create tracker items. A monthly commentary pack is produced for forums.</t>
+  </si>
+  <si>
+    <t>Qualitative: Risk analysts produce trend commentary that explains movements and drivers and proposes actions; outliers are investigated; links to incidents and controls are explicit. 
+Quantitative: Monthly trend packs on time ≥95%; actions raised per adverse trend; closure P95 ≤30 days. 
+Example: Dashboards/logs show targets met for Risk monitoring and trending analysis; variances generate actions with owners.</t>
+  </si>
+  <si>
+    <t>Reliability engineering for Risk monitoring and trending analysis reduces toil; error-budgets guide decisions; SLO attainment improves. 
+Example: Paging volume down; SLO compliance up.</t>
+  </si>
+  <si>
+    <t>Breach handling unclear; notifications late or inaccurate; evidence not retained. 
+Example: No 72-hour awareness process.</t>
+  </si>
+  <si>
+    <t>Breach procedures drafted; roles trained; some on-time notifications; documentation variable. 
+Example: Near misses not captured.</t>
+  </si>
+  <si>
+    <t>Playbooks link each KRI threshold to actions and escalation (who, when, how), including timer start, comms templates, regulatory triggers (where relevant), and evidence to capture. Overrides require rationale and approval; closure requires verification of effect.</t>
+  </si>
+  <si>
+    <t>Qualitative: Breach playbooks meet statutory content/timelines and are rehearsed; notifications are accurate; evidence and decisions retained. 
+Quantitative: Notification timeliness 100%; post‑breach actions closed to SLO; recurrence of similar cause &lt;5%. 
+Example: Dashboards/logs show targets met for Threshold breach escalation playbooks; variances generate actions with owners.</t>
+  </si>
+  <si>
+    <t>Rehearsed breach playbooks; accurate notifications; evidence retained; themes drive mitigations. 
+Example: Timeliness 100%; similar issues drop.</t>
   </si>
 </sst>
 </file>
@@ -6976,91 +7084,6 @@
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color auto="1"/>
@@ -7145,6 +7168,24 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -7354,6 +7395,73 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7368,135 +7476,79 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38CE8689-9F1C-43F9-B700-F298F69C440E}" name="Framework" displayName="Framework" ref="A1:H104" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
-  <autoFilter xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" ref="A1:H104" xr:uid="{38CE8689-9F1C-43F9-B700-F298F69C440E}">
-    <filterColumn colId="6">
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice Requires="x14">
-          <filters>
-            <x14:filter val="Qualitative: The Alternative workflow and manual processes process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Alternative workflow and manual processes; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Board-approved operational resilience strategy process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Board-approved operational resilience strategy; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Capital and liquidity buffers process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Capital and liquidity buffers; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Comprehensive BIA methodology process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Comprehensive BIA methodology; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Contract management and SLAs process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Contract management and SLAs; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Crisis activation and escalation process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Crisis activation and escalation; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Due diligence and onboarding process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Due diligence and onboarding; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Employee engagement and ownership process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Employee engagement and ownership; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Employee wellbeing programmes process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Employee wellbeing programmes; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Examination and inspection readiness process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Examination and inspection readiness; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Exception and waiver governance process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Exception and waiver governance; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Governance and oversight structure process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Governance and oversight structure; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Important business services register process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Important business services register; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Independent challenge and escalation mechanisms process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Independent challenge and escalation mechanisms; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Information lifecycle management process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Information lifecycle management; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Issue and action tracking workflow process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Issue and action tracking workflow; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Issue remediation and closure process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Issue remediation and closure; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Leadership commitment and messaging process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Leadership commitment and messaging; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Master data and reference architecture process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Master data and reference architecture; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Media and public relations process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Media and public relations; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Operational resilience governance structure process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Operational resilience governance structure; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Post-exercise analysis and improvement process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Post-exercise analysis and improvement; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Predictive risk analytics process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Predictive risk analytics; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Process standardization and optimization process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Process standardization and optimization; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Regulatory feedback integration process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Regulatory feedback integration; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Regulatory horizon scanning process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Regulatory horizon scanning; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Regulatory notification management process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Regulatory notification management; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Regulatory self-assessment processes process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Regulatory self-assessment processes; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Remote work and flexibility process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Remote work and flexibility; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Residual risk rating methodology process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Residual risk rating methodology; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Resilience mindset and behaviors process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Resilience mindset and behaviors; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Security operations and incident response process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Security operations and incident response; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Service level architecture process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Service level architecture; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Simulation and experiential learning process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Simulation and experiential learning; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Single point of failure identification process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Single point of failure identification; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Skills assessment and gap analysis process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Skills assessment and gap analysis; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Supervisory relationship management process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_MI on timeliness/quality of responses; repeat-issue rate trending down; risk-based playbooks for incident notifications._x000a_Pre-reads aligned to tolerance headroom and resilience MI; external feedback loops into policy/controls._x000a_Example: Dashboards/logs show targets met for Supervisory relationship management; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Supply chain risk assessment process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Supply chain risk assessment; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Version control and change management process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Version control and change management; variances generate actions with owners."/>
-            <x14:filter val="Qualitative: The Workforce contingency planning process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Quantitative: KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Workforce contingency planning; variances generate actions with owners."/>
-            <x14:filter val="The Standardized BC plan framework process is executed consistently as designed with clear roles, artefacts and day‑to‑day evidence of control. _x000a_Searchable plan portal; usage/currency analytics; drills validate usability; defects flow to backlog; supplier access tested._x000a_KPIs/KRIs for this process achieved ≥95%; variances trigger timely corrective action; audit issues closed within SLO. _x000a_Example: Dashboards/logs show targets met for Standardized BC plan framework; variances generate actions with owners."/>
-          </filters>
-        </mc:Choice>
-        <mc:Fallback>
-          <customFilters>
-            <customFilter val=""/>
-            <customFilter operator="notEqual" val=" "/>
-          </customFilters>
-        </mc:Fallback>
-      </mc:AlternateContent>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H104">
-    <sortCondition ref="A2:A104"/>
-    <sortCondition ref="B2:B104"/>
-    <sortCondition ref="C2:C104"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38CE8689-9F1C-43F9-B700-F298F69C440E}" name="Framework" displayName="Framework" ref="A1:H106" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45">
+  <autoFilter ref="A1:H106" xr:uid="{38CE8689-9F1C-43F9-B700-F298F69C440E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H106">
+    <sortCondition ref="A2:A106"/>
+    <sortCondition ref="B2:B106"/>
+    <sortCondition ref="C2:C106"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0093D61F-B69E-457B-A05D-E5B0AB1D0BA3}" name="Dimension"/>
-    <tableColumn id="2" xr3:uid="{0FB31B3F-B70C-4D60-853D-8C2A86F33D4C}" name="Theme" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{975DF045-104A-4165-938B-21FCD45B16AF}" name="Topic" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{7F44786E-0AF5-4109-869B-783C590EC47D}" name="1 Initial" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{673A7CEA-C506-47C8-9ECB-024A63A3C957}" name="2 Managed" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{41282D69-C2E8-4889-8192-7EF494BD1B3B}" name="3 Defined" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{5BA7495C-F296-4558-B8E1-A47545ECDD13}" name="4 Quantitatively Managed" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{4C19FB59-0F5E-4F52-8D93-FEC49D806829}" name="5 Optimising" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{0FB31B3F-B70C-4D60-853D-8C2A86F33D4C}" name="Theme" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{975DF045-104A-4165-938B-21FCD45B16AF}" name="Topic" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{7F44786E-0AF5-4109-869B-783C590EC47D}" name="1 Initial" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{673A7CEA-C506-47C8-9ECB-024A63A3C957}" name="2 Managed" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{41282D69-C2E8-4889-8192-7EF494BD1B3B}" name="3 Defined" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{5BA7495C-F296-4558-B8E1-A47545ECDD13}" name="4 Quantitatively Managed" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{4C19FB59-0F5E-4F52-8D93-FEC49D806829}" name="5 Optimising" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{643E1880-A5B6-4AB3-82FD-B8E67437DF17}" name="CMMI_definitions" displayName="CMMI_definitions" ref="A1:B6" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{643E1880-A5B6-4AB3-82FD-B8E67437DF17}" name="CMMI_definitions" displayName="CMMI_definitions" ref="A1:B6" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34">
   <autoFilter ref="A1:B6" xr:uid="{643E1880-A5B6-4AB3-82FD-B8E67437DF17}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3A19EC98-9011-4A57-B752-3199EE2AA661}" name="Level" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{443EFA67-FDDD-4D83-BC75-92A47BB1EDCA}" name="Definition" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{3A19EC98-9011-4A57-B752-3199EE2AA661}" name="Level" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{443EFA67-FDDD-4D83-BC75-92A47BB1EDCA}" name="Definition" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B022752F-B219-4222-9DB2-E8982D75907C}" name="dimension_desc" displayName="dimension_desc" ref="A1:B10" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B022752F-B219-4222-9DB2-E8982D75907C}" name="dimension_desc" displayName="dimension_desc" ref="A1:B10" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28">
   <autoFilter ref="A1:B10" xr:uid="{B022752F-B219-4222-9DB2-E8982D75907C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F84A265F-5D7B-45AD-8279-8FF81C0F8672}" name="Dimension" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{60EAC33C-0FF5-4068-8DD2-901DAA68762A}" name="Dimension_Description" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{F84A265F-5D7B-45AD-8279-8FF81C0F8672}" name="Dimension" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{60EAC33C-0FF5-4068-8DD2-901DAA68762A}" name="Dimension_Description" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4E66B40B-5A89-438A-BC55-C25A01018498}" name="theme_desc" displayName="theme_desc" ref="D1:E28" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4E66B40B-5A89-438A-BC55-C25A01018498}" name="theme_desc" displayName="theme_desc" ref="D1:E28" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
   <autoFilter ref="D1:E28" xr:uid="{4E66B40B-5A89-438A-BC55-C25A01018498}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2CBFB1F1-70AF-41E1-8963-46393F824366}" name="Theme" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{A4340CD8-0F94-40E6-8C80-D84D85A67C64}" name="Theme_Description" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{2CBFB1F1-70AF-41E1-8963-46393F824366}" name="Theme" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{A4340CD8-0F94-40E6-8C80-D84D85A67C64}" name="Theme_Description" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5E1C6B87-2747-458C-B3F5-EFCC110AE996}" name="topic_desc" displayName="topic_desc" ref="G1:N104" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
-  <autoFilter ref="G1:N104" xr:uid="{5E1C6B87-2747-458C-B3F5-EFCC110AE996}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5E1C6B87-2747-458C-B3F5-EFCC110AE996}" name="topic_desc" displayName="topic_desc" ref="G1:N106" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+  <autoFilter ref="G1:N106" xr:uid="{5E1C6B87-2747-458C-B3F5-EFCC110AE996}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{570AE7C9-317D-4313-93E3-1D765C0EE7B5}" name="Topic" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{9CB8E865-3D67-4610-B58B-5E6220390C74}" name="Topic_Description" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{817CD10B-C459-4229-8C73-49217E3C27F2}" name="Impact (when weak)" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{E5C17038-224B-4091-B5D5-012F7816B2F4}" name="Benefits (when strong)" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{762C6A19-BF31-4E6E-9B30-67B40E60FF5B}" name="Basic implementation" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{56AD8473-87CD-4924-BE97-A71C2702154D}" name="Advanced implementation" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{5D0BADAF-4F33-4B1F-94B2-1BE8A8DDFFBB}" name="Evidence of effectiveness" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{2D400BA3-AA11-4FD9-9649-F6FD5B1DEA1C}" name="Regulatory pointers" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{570AE7C9-317D-4313-93E3-1D765C0EE7B5}" name="Topic" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{9CB8E865-3D67-4610-B58B-5E6220390C74}" name="Topic_Description" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{817CD10B-C459-4229-8C73-49217E3C27F2}" name="Impact (when weak)" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{E5C17038-224B-4091-B5D5-012F7816B2F4}" name="Benefits (when strong)" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{762C6A19-BF31-4E6E-9B30-67B40E60FF5B}" name="Basic implementation" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{56AD8473-87CD-4924-BE97-A71C2702154D}" name="Advanced implementation" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{5D0BADAF-4F33-4B1F-94B2-1BE8A8DDFFBB}" name="Evidence of effectiveness" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{2D400BA3-AA11-4FD9-9649-F6FD5B1DEA1C}" name="Regulatory pointers" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4F92EA2F-6518-45D6-8E73-E52F6643E6B4}" name="theme_generic" displayName="theme_generic" ref="A1:G28" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4F92EA2F-6518-45D6-8E73-E52F6643E6B4}" name="theme_generic" displayName="theme_generic" ref="A1:G28" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="A1:G28" xr:uid="{4F92EA2F-6518-45D6-8E73-E52F6643E6B4}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{0E1C92DE-7F92-4C27-AF5C-C9BA9951D8D2}" name="Theme"/>
@@ -7512,15 +7564,15 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4012C250-9782-44B4-874A-ECEDAADCA7EF}" name="Acronyms" displayName="Acronyms" ref="A1:C66" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4012C250-9782-44B4-874A-ECEDAADCA7EF}" name="Acronyms" displayName="Acronyms" ref="A1:C66" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A1:C66" xr:uid="{4012C250-9782-44B4-874A-ECEDAADCA7EF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C66">
     <sortCondition ref="A1:A66"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{64DE9952-5C98-4FAA-B58E-954377CCAEE1}" name="Acronym"/>
-    <tableColumn id="2" xr3:uid="{CCE748DB-BD35-41F6-A6C5-B35F825B4553}" name="Full terminology" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{A87C3444-FD37-4FF7-A298-756975455F8A}" name="Meaning / Why it matters in this framework" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{CCE748DB-BD35-41F6-A6C5-B35F825B4553}" name="Full terminology" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A87C3444-FD37-4FF7-A298-756975455F8A}" name="Meaning / Why it matters in this framework" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7847,10 +7899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7959,7 +8011,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>420</v>
       </c>
@@ -7985,7 +8037,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>420</v>
       </c>
@@ -8037,7 +8089,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>420</v>
       </c>
@@ -8089,7 +8141,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>420</v>
       </c>
@@ -8115,7 +8167,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>420</v>
       </c>
@@ -8167,7 +8219,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>420</v>
       </c>
@@ -8245,7 +8297,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -8297,7 +8349,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -8401,7 +8453,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -8505,7 +8557,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -8557,7 +8609,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -8583,7 +8635,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -8687,7 +8739,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -8765,7 +8817,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -8791,7 +8843,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -8843,7 +8895,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>421</v>
       </c>
@@ -8869,7 +8921,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>421</v>
       </c>
@@ -8895,7 +8947,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>421</v>
       </c>
@@ -8921,7 +8973,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>421</v>
       </c>
@@ -8947,7 +8999,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>421</v>
       </c>
@@ -8976,7 +9028,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>421</v>
       </c>
@@ -9002,7 +9054,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>421</v>
       </c>
@@ -9054,7 +9106,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>421</v>
       </c>
@@ -9106,7 +9158,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -9158,7 +9210,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -9184,7 +9236,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -9210,7 +9262,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -9236,7 +9288,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -9262,7 +9314,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -9288,7 +9340,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -9314,7 +9366,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -9340,7 +9392,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -9366,7 +9418,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -9392,7 +9444,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -9418,7 +9470,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -9444,7 +9496,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -9470,7 +9522,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -9496,7 +9548,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -9574,7 +9626,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -9600,7 +9652,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -9678,7 +9730,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -9782,7 +9834,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -9808,7 +9860,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -9860,7 +9912,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -9886,7 +9938,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -9912,7 +9964,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -9938,7 +9990,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -10068,7 +10120,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -10094,7 +10146,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -10120,7 +10172,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -10146,7 +10198,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -10172,7 +10224,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -10224,7 +10276,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -10250,7 +10302,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -10302,111 +10354,111 @@
         <v>556</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>115</v>
+        <v>1704</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>800</v>
+        <v>1720</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>801</v>
+        <v>1721</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>802</v>
+        <v>1722</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>559</v>
+        <v>1723</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="225" hidden="1" x14ac:dyDescent="0.25">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>867</v>
+        <v>1712</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>868</v>
+        <v>1725</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>869</v>
+        <v>1726</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>870</v>
+        <v>1727</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>871</v>
+        <v>1728</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>16</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>898</v>
+        <v>115</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>16</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>894</v>
+        <v>867</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>803</v>
+        <v>868</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>804</v>
+        <v>869</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>355</v>
+        <v>870</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>560</v>
+        <v>871</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="195" hidden="1" x14ac:dyDescent="0.25">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -10414,25 +10466,25 @@
         <v>37</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>108</v>
+        <v>898</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="210" hidden="1" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -10440,25 +10492,25 @@
         <v>37</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>353</v>
+        <v>807</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="180" hidden="1" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -10466,74 +10518,74 @@
         <v>37</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>110</v>
+        <v>894</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="330" hidden="1" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>16</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="330" x14ac:dyDescent="0.25">
@@ -10544,25 +10596,25 @@
         <v>38</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="300" hidden="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -10570,21 +10622,73 @@
         <v>38</v>
       </c>
       <c r="C104" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="G106" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="H104" s="2" t="s">
+      <c r="H106" s="2" t="s">
         <v>606</v>
       </c>
     </row>
@@ -10668,9 +10772,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H106" sqref="H106"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13617,6 +13723,58 @@
       </c>
       <c r="N104" s="2" t="s">
         <v>1564</v>
+      </c>
+    </row>
+    <row r="105" spans="7:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="G105" s="2" t="s">
+        <v>1704</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>1709</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>1710</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="106" spans="7:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="G106" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>1715</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>1719</v>
       </c>
     </row>
   </sheetData>
@@ -14300,7 +14458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
